--- a/python_code/data/map 5/all_agents_score.xlsx
+++ b/python_code/data/map 5/all_agents_score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="153">
   <si>
     <t>computer_score</t>
   </si>
@@ -238,6 +238,222 @@
     <t>-Ms99IDhbSnEbmxXBhYR</t>
   </si>
   <si>
+    <t>-MsauRljHAjxxD9HBaGp</t>
+  </si>
+  <si>
+    <t>-MsauSB5JVOX4oxUR5j_</t>
+  </si>
+  <si>
+    <t>-MsauSVrS-lOK0f3lQHR</t>
+  </si>
+  <si>
+    <t>-MsauXxcJ_MSgqpl76-X</t>
+  </si>
+  <si>
+    <t>-MsauYlnUk5jaoJFNWxb</t>
+  </si>
+  <si>
+    <t>-Msauj4egD4t92hYw7SQ</t>
+  </si>
+  <si>
+    <t>-MsaumSVz74bKgQ2nLDX</t>
+  </si>
+  <si>
+    <t>-MsautExMivVysgpdeV6</t>
+  </si>
+  <si>
+    <t>-Msav5Gu7uoYG8qRYvrm</t>
+  </si>
+  <si>
+    <t>-Msav7YY2AsVBkhu2K9K</t>
+  </si>
+  <si>
+    <t>-Msav92eeRih_1c_MsCU</t>
+  </si>
+  <si>
+    <t>-MsavWinjz9fbbAe6u7h</t>
+  </si>
+  <si>
+    <t>-MsavXNep-xekmfzy2rY</t>
+  </si>
+  <si>
+    <t>-Msavm6ystgM46SfQHKZ</t>
+  </si>
+  <si>
+    <t>-Msaw4PMT4vB5qvedf2u</t>
+  </si>
+  <si>
+    <t>-Msax5DgM74-HdTd_EBD</t>
+  </si>
+  <si>
+    <t>-MsaxGuiWAvXMjM96GKs</t>
+  </si>
+  <si>
+    <t>-MsaxMbZvjDJYezucubT</t>
+  </si>
+  <si>
+    <t>-MsaxZdUmdK1fBdv86cx</t>
+  </si>
+  <si>
+    <t>-MsaxqLu287O3dtnbM7Q</t>
+  </si>
+  <si>
+    <t>-Msay-pTxeEaDx221XW-</t>
+  </si>
+  <si>
+    <t>-Msay0NZ0vlI6xVcl9DT</t>
+  </si>
+  <si>
+    <t>-MsayNxS_IoTWfupbHOq</t>
+  </si>
+  <si>
+    <t>-MsayiPdrBZistZyZbJy</t>
+  </si>
+  <si>
+    <t>-MsazqnPNIMKg8FfEDtv</t>
+  </si>
+  <si>
+    <t>-Msb0BLu4Z1_x9U9gTxp</t>
+  </si>
+  <si>
+    <t>-Msb0iDHcGBNmHVrAzjy</t>
+  </si>
+  <si>
+    <t>-Msb1PB7r0x9s-kTPb11</t>
+  </si>
+  <si>
+    <t>-Msb2wTKCIJ1NYc9ixER</t>
+  </si>
+  <si>
+    <t>-Msb32xz0VtKKGojjkjC</t>
+  </si>
+  <si>
+    <t>-Msb3DKcSLU4CJi4z0-m</t>
+  </si>
+  <si>
+    <t>-Msb58dQwhQRILmymsEU</t>
+  </si>
+  <si>
+    <t>-Msb5SRNHQ1UZ2-y7OnD</t>
+  </si>
+  <si>
+    <t>-Msb6cq4eGzwgJ23nf2O</t>
+  </si>
+  <si>
+    <t>-Msb7wxtqQ-yWj234n0u</t>
+  </si>
+  <si>
+    <t>-MsbAHOOcg4X5elN182l</t>
+  </si>
+  <si>
+    <t>-MsbHabZdFgXL8M8umJN</t>
+  </si>
+  <si>
+    <t>-MsbLMgqs0rygJQtF1LO</t>
+  </si>
+  <si>
+    <t>-MsbM21CSblxiZUpLCQy</t>
+  </si>
+  <si>
+    <t>-Msbfz_Q3OpvgTN3aTi6</t>
+  </si>
+  <si>
+    <t>-MsgAEXLOtXEqqfH0KlM</t>
+  </si>
+  <si>
+    <t>-MsgAEwyjEh-yzk912c2</t>
+  </si>
+  <si>
+    <t>-MsgAH0pCTKe8xGd0x_B</t>
+  </si>
+  <si>
+    <t>-MsgAKvzI2Wv-QH2Hq-A</t>
+  </si>
+  <si>
+    <t>-MsgAMUwYTMpZpjoNQZR</t>
+  </si>
+  <si>
+    <t>-MsgAMsSDTPlFVPxbs5i</t>
+  </si>
+  <si>
+    <t>-MsgAN8ESX7sswo3BiV6</t>
+  </si>
+  <si>
+    <t>-MsgARTOtxuKWMV5UCkN</t>
+  </si>
+  <si>
+    <t>-MsgAc30GCmnZmodKdaB</t>
+  </si>
+  <si>
+    <t>-MsgAonf24h9XmmIx3X-</t>
+  </si>
+  <si>
+    <t>-MsgAopGufwjZuksS2gR</t>
+  </si>
+  <si>
+    <t>-MsgBZUf81IybTrLIU8v</t>
+  </si>
+  <si>
+    <t>-MsgBxLiKur3rdNKHkRw</t>
+  </si>
+  <si>
+    <t>-MsgC3PuKJ0cgfG0tMYL</t>
+  </si>
+  <si>
+    <t>-MsgCvFl3k8vmQrzZQ78</t>
+  </si>
+  <si>
+    <t>-MsgERxea3QFryTagjrK</t>
+  </si>
+  <si>
+    <t>-MsgGcYafVurq46yccG7</t>
+  </si>
+  <si>
+    <t>-MsgI6iToDalQih0fhpY</t>
+  </si>
+  <si>
+    <t>-MsgIi2-CV-aGAgSzFDQ</t>
+  </si>
+  <si>
+    <t>-MsgIqPSYuSoci00Ga1z</t>
+  </si>
+  <si>
+    <t>-MsgJhers6htnOgB79hc</t>
+  </si>
+  <si>
+    <t>-MsgKMiTTLIetkOYWAoP</t>
+  </si>
+  <si>
+    <t>-MsgOZlcTOXpIdPf64x9</t>
+  </si>
+  <si>
+    <t>-MsgPGDdb3H4UITMdJ54</t>
+  </si>
+  <si>
+    <t>-MsgRr7TK7GcFg7htlpg</t>
+  </si>
+  <si>
+    <t>-MsgRyn2tztlDQxPnY8l</t>
+  </si>
+  <si>
+    <t>-Msg_BkQkEt-eUzXVfSt</t>
+  </si>
+  <si>
+    <t>-MsgaG9NB59MSFmWLkKV</t>
+  </si>
+  <si>
+    <t>-MsgbAJzGfW2r79QD_TQ</t>
+  </si>
+  <si>
+    <t>-MsgiNYkpq3-jiVXAeCi</t>
+  </si>
+  <si>
+    <t>-MsgjIKhnxLbvtFgY4PR</t>
+  </si>
+  <si>
+    <t>-Msgkodugfx49ojmJEaA</t>
+  </si>
+  <si>
     <t>TSP</t>
   </si>
   <si>
@@ -251,6 +467,12 @@
   </si>
   <si>
     <t>closest</t>
+  </si>
+  <si>
+    <t>sarl ddqn distribution</t>
+  </si>
+  <si>
+    <t>ddqn distribution</t>
   </si>
 </sst>
 </file>
@@ -608,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +870,7 @@
         <v>1.2</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -668,7 +890,7 @@
         <v>0.9</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -688,7 +910,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -708,7 +930,7 @@
         <v>0.78</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -728,7 +950,7 @@
         <v>0.48</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -748,7 +970,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -768,7 +990,7 @@
         <v>0.05</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -788,7 +1010,7 @@
         <v>0.9</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -808,7 +1030,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -828,7 +1050,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -848,7 +1070,7 @@
         <v>-0.32</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -868,7 +1090,7 @@
         <v>-1.3</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -888,7 +1110,7 @@
         <v>0.9</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -908,7 +1130,7 @@
         <v>-1.2</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -928,7 +1150,7 @@
         <v>0.8</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -948,7 +1170,7 @@
         <v>0.9</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -968,7 +1190,7 @@
         <v>0.85</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -988,7 +1210,7 @@
         <v>0.9</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1008,7 +1230,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1028,7 +1250,7 @@
         <v>0.45</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1048,7 +1270,7 @@
         <v>0.9</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1068,7 +1290,7 @@
         <v>0.55</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1088,7 +1310,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1108,7 +1330,7 @@
         <v>0.9</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1128,7 +1350,7 @@
         <v>0.9</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1148,7 +1370,7 @@
         <v>0.6</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1168,7 +1390,7 @@
         <v>0.87</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1188,7 +1410,7 @@
         <v>0.9</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1208,7 +1430,7 @@
         <v>-0.04</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1228,7 +1450,7 @@
         <v>0.8</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1248,7 +1470,7 @@
         <v>-0.6</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1268,7 +1490,7 @@
         <v>-0.7</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1288,7 +1510,7 @@
         <v>0.04</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1308,7 +1530,7 @@
         <v>0.05</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1328,7 +1550,7 @@
         <v>0.7</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1348,7 +1570,7 @@
         <v>0.5</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1368,7 +1590,7 @@
         <v>0.89</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1388,7 +1610,7 @@
         <v>-1.12</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1408,7 +1630,7 @@
         <v>-0.3</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1428,7 +1650,7 @@
         <v>0.8</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1448,7 +1670,7 @@
         <v>0.8</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1468,7 +1690,7 @@
         <v>0.05</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1488,7 +1710,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1508,7 +1730,7 @@
         <v>-0.05</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1528,7 +1750,7 @@
         <v>0.9</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1548,7 +1770,7 @@
         <v>-0.36</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1568,7 +1790,7 @@
         <v>-0.55</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1588,7 +1810,7 @@
         <v>0.95</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1608,7 +1830,7 @@
         <v>-0.15</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1628,7 +1850,7 @@
         <v>1.15</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1648,7 +1870,7 @@
         <v>-0.4</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1668,7 +1890,7 @@
         <v>0.9</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1688,7 +1910,7 @@
         <v>0.05</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1708,7 +1930,7 @@
         <v>0.9</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1728,7 +1950,7 @@
         <v>0.15</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1748,7 +1970,7 @@
         <v>0.75</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1768,7 +1990,7 @@
         <v>-0.35</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1788,7 +2010,7 @@
         <v>0.9</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1808,7 +2030,7 @@
         <v>0.75</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1828,7 +2050,7 @@
         <v>0.05</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1848,7 +2070,7 @@
         <v>-0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1868,7 +2090,7 @@
         <v>0.2</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1888,7 +2110,7 @@
         <v>-0</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1908,7 +2130,7 @@
         <v>0.05</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1928,7 +2150,7 @@
         <v>-1.1</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1948,7 +2170,7 @@
         <v>0.25</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1968,7 +2190,7 @@
         <v>1.17</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1988,7 +2210,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2008,7 +2230,1447 @@
         <v>0.5</v>
       </c>
       <c r="F70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="B71">
+        <v>1.11</v>
+      </c>
+      <c r="C71">
+        <v>0.75</v>
+      </c>
+      <c r="D71">
+        <v>1.21</v>
+      </c>
+      <c r="E71">
+        <v>0.9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>-0.31</v>
+      </c>
+      <c r="C72">
+        <v>-1.67</v>
+      </c>
+      <c r="D72">
+        <v>-0.31</v>
+      </c>
+      <c r="E72">
+        <v>-1.42</v>
+      </c>
+      <c r="F72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>1.14</v>
+      </c>
+      <c r="C73">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="D73">
+        <v>1.14</v>
+      </c>
+      <c r="E73">
+        <v>0.21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>1.14</v>
+      </c>
+      <c r="C74">
+        <v>-0.3</v>
+      </c>
+      <c r="D74">
+        <v>1.14</v>
+      </c>
+      <c r="E74">
+        <v>-0.05</v>
+      </c>
+      <c r="F74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>1.11</v>
+      </c>
+      <c r="C75">
+        <v>0.75</v>
+      </c>
+      <c r="D75">
+        <v>1.21</v>
+      </c>
+      <c r="E75">
+        <v>0.9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>1.11</v>
+      </c>
+      <c r="C76">
+        <v>0.75</v>
+      </c>
+      <c r="D76">
+        <v>1.21</v>
+      </c>
+      <c r="E76">
+        <v>0.9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>1.11</v>
+      </c>
+      <c r="C77">
+        <v>0.75</v>
+      </c>
+      <c r="D77">
+        <v>1.21</v>
+      </c>
+      <c r="E77">
+        <v>0.9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>1.11</v>
+      </c>
+      <c r="C78">
+        <v>0.75</v>
+      </c>
+      <c r="D78">
+        <v>1.21</v>
+      </c>
+      <c r="E78">
+        <v>0.9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>1.03</v>
+      </c>
+      <c r="C79">
+        <v>-0.41</v>
+      </c>
+      <c r="D79">
+        <v>1.03</v>
+      </c>
+      <c r="E79">
+        <v>-0.16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>0.95</v>
+      </c>
+      <c r="C80">
+        <v>-1.1</v>
+      </c>
+      <c r="D80">
+        <v>0.95</v>
+      </c>
+      <c r="E80">
+        <v>-0.85</v>
+      </c>
+      <c r="F80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>0.92</v>
+      </c>
+      <c r="C81">
+        <v>-0.43</v>
+      </c>
+      <c r="D81">
+        <v>0.92</v>
+      </c>
+      <c r="E81">
+        <v>-0.18</v>
+      </c>
+      <c r="F81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>1.12</v>
+      </c>
+      <c r="C82">
+        <v>-0.2</v>
+      </c>
+      <c r="D82">
+        <v>1.12</v>
+      </c>
+      <c r="E82">
+        <v>0.05</v>
+      </c>
+      <c r="F82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>1.13</v>
+      </c>
+      <c r="C83">
+        <v>-0.18</v>
+      </c>
+      <c r="D83">
+        <v>1.13</v>
+      </c>
+      <c r="E83">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>1.1</v>
+      </c>
+      <c r="C84">
+        <v>0.74</v>
+      </c>
+      <c r="D84">
+        <v>1.2</v>
+      </c>
+      <c r="E84">
+        <v>0.89</v>
+      </c>
+      <c r="F84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="C85">
+        <v>0.3</v>
+      </c>
+      <c r="D85">
+        <v>1.07</v>
+      </c>
+      <c r="E85">
+        <v>0.45</v>
+      </c>
+      <c r="F85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>0.66</v>
+      </c>
+      <c r="C86">
+        <v>-1.05</v>
+      </c>
+      <c r="D86">
+        <v>0.66</v>
+      </c>
+      <c r="E86">
+        <v>-0.8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="C87">
+        <v>-1.27</v>
+      </c>
+      <c r="D87">
+        <v>0.68</v>
+      </c>
+      <c r="E87">
+        <v>-1.12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>1.04</v>
+      </c>
+      <c r="C88">
+        <v>0.45</v>
+      </c>
+      <c r="D88">
+        <v>1.14</v>
+      </c>
+      <c r="E88">
+        <v>0.6</v>
+      </c>
+      <c r="F88" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>1.09</v>
+      </c>
+      <c r="C89">
+        <v>0.74</v>
+      </c>
+      <c r="D89">
+        <v>1.19</v>
+      </c>
+      <c r="E89">
+        <v>0.89</v>
+      </c>
+      <c r="F89" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>1.07</v>
+      </c>
+      <c r="C90">
+        <v>0.71</v>
+      </c>
+      <c r="D90">
+        <v>1.17</v>
+      </c>
+      <c r="E90">
+        <v>0.86</v>
+      </c>
+      <c r="F90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>1.03</v>
+      </c>
+      <c r="C91">
+        <v>0.35</v>
+      </c>
+      <c r="D91">
+        <v>1.13</v>
+      </c>
+      <c r="E91">
+        <v>0.5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>1.04</v>
+      </c>
+      <c r="C92">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D92">
+        <v>1.14</v>
+      </c>
+      <c r="E92">
+        <v>0.71</v>
+      </c>
+      <c r="F92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>1.11</v>
+      </c>
+      <c r="C93">
+        <v>0.75</v>
+      </c>
+      <c r="D93">
+        <v>1.21</v>
+      </c>
+      <c r="E93">
+        <v>0.9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>0.99</v>
+      </c>
+      <c r="C94">
+        <v>-0.29</v>
+      </c>
+      <c r="D94">
+        <v>0.99</v>
+      </c>
+      <c r="E94">
+        <v>-0.04</v>
+      </c>
+      <c r="F94" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>1.11</v>
+      </c>
+      <c r="C95">
+        <v>0.75</v>
+      </c>
+      <c r="D95">
+        <v>1.21</v>
+      </c>
+      <c r="E95">
+        <v>0.9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>1.1</v>
+      </c>
+      <c r="C96">
+        <v>-0.38</v>
+      </c>
+      <c r="D96">
+        <v>1.1</v>
+      </c>
+      <c r="E96">
+        <v>-0.13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>1.11</v>
+      </c>
+      <c r="C97">
+        <v>0.75</v>
+      </c>
+      <c r="D97">
+        <v>1.21</v>
+      </c>
+      <c r="E97">
+        <v>0.9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>1.12</v>
+      </c>
+      <c r="C98">
+        <v>-0.35</v>
+      </c>
+      <c r="D98">
+        <v>1.12</v>
+      </c>
+      <c r="E98">
+        <v>-0.1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>1.18</v>
+      </c>
+      <c r="C99">
+        <v>-0.1</v>
+      </c>
+      <c r="D99">
+        <v>1.18</v>
+      </c>
+      <c r="E99">
+        <v>0.15</v>
+      </c>
+      <c r="F99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>1.11</v>
+      </c>
+      <c r="C100">
+        <v>0.75</v>
+      </c>
+      <c r="D100">
+        <v>1.21</v>
+      </c>
+      <c r="E100">
+        <v>0.9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>1.11</v>
+      </c>
+      <c r="C101">
+        <v>0.75</v>
+      </c>
+      <c r="D101">
+        <v>1.21</v>
+      </c>
+      <c r="E101">
+        <v>0.9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>1.01</v>
+      </c>
+      <c r="C102">
+        <v>0.61</v>
+      </c>
+      <c r="D102">
+        <v>1.11</v>
+      </c>
+      <c r="E102">
+        <v>0.76</v>
+      </c>
+      <c r="F102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>1.11</v>
+      </c>
+      <c r="C103">
+        <v>0.75</v>
+      </c>
+      <c r="D103">
+        <v>1.21</v>
+      </c>
+      <c r="E103">
+        <v>0.9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>1.04</v>
+      </c>
+      <c r="C104">
+        <v>0.4</v>
+      </c>
+      <c r="D104">
+        <v>1.14</v>
+      </c>
+      <c r="E104">
+        <v>0.55</v>
+      </c>
+      <c r="F104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>1.08</v>
+      </c>
+      <c r="C105">
+        <v>0.72</v>
+      </c>
+      <c r="D105">
+        <v>1.18</v>
+      </c>
+      <c r="E105">
+        <v>0.87</v>
+      </c>
+      <c r="F105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>1.04</v>
+      </c>
+      <c r="C106">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="D106">
+        <v>1.14</v>
+      </c>
+      <c r="E106">
+        <v>0.59</v>
+      </c>
+      <c r="F106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>1.12</v>
+      </c>
+      <c r="C107">
+        <v>-0.16</v>
+      </c>
+      <c r="D107">
+        <v>1.12</v>
+      </c>
+      <c r="E107">
+        <v>0.09</v>
+      </c>
+      <c r="F107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>1.13</v>
+      </c>
+      <c r="C108">
+        <v>-0.35</v>
+      </c>
+      <c r="D108">
+        <v>1.13</v>
+      </c>
+      <c r="E108">
+        <v>-0.1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>1.15</v>
+      </c>
+      <c r="C109">
+        <v>-0.2</v>
+      </c>
+      <c r="D109">
+        <v>1.15</v>
+      </c>
+      <c r="E109">
+        <v>0.05</v>
+      </c>
+      <c r="F109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>1.14</v>
+      </c>
+      <c r="C110">
+        <v>-0.25</v>
+      </c>
+      <c r="D110">
+        <v>1.14</v>
+      </c>
+      <c r="E110">
+        <v>-0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>0.75</v>
+      </c>
+      <c r="C111">
+        <v>0.83</v>
+      </c>
+      <c r="D111">
+        <v>0.85</v>
+      </c>
+      <c r="E111">
+        <v>0.98</v>
+      </c>
+      <c r="F111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>0.009999999999999995</v>
+      </c>
+      <c r="C112">
+        <v>-0.19</v>
+      </c>
+      <c r="D112">
+        <v>0.06</v>
+      </c>
+      <c r="E112">
+        <v>0.01</v>
+      </c>
+      <c r="F112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>0.75</v>
+      </c>
+      <c r="C113">
+        <v>0.75</v>
+      </c>
+      <c r="D113">
+        <v>0.85</v>
+      </c>
+      <c r="E113">
+        <v>0.9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="C114">
+        <v>-0.4</v>
+      </c>
+      <c r="D114">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E114">
+        <v>-0.15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>0.87</v>
+      </c>
+      <c r="C115">
+        <v>0.75</v>
+      </c>
+      <c r="D115">
+        <v>0.97</v>
+      </c>
+      <c r="E115">
+        <v>0.9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>0.7</v>
+      </c>
+      <c r="C116">
+        <v>0.74</v>
+      </c>
+      <c r="D116">
+        <v>0.85</v>
+      </c>
+      <c r="E116">
+        <v>0.84</v>
+      </c>
+      <c r="F116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>0.49</v>
+      </c>
+      <c r="C117">
+        <v>0.49</v>
+      </c>
+      <c r="D117">
+        <v>0.64</v>
+      </c>
+      <c r="E117">
+        <v>0.59</v>
+      </c>
+      <c r="F117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>0.15</v>
+      </c>
+      <c r="C118">
+        <v>0.15</v>
+      </c>
+      <c r="D118">
+        <v>0.25</v>
+      </c>
+      <c r="E118">
+        <v>0.3</v>
+      </c>
+      <c r="F118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>0.87</v>
+      </c>
+      <c r="C119">
+        <v>0.75</v>
+      </c>
+      <c r="D119">
+        <v>0.97</v>
+      </c>
+      <c r="E119">
+        <v>0.9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0.2</v>
+      </c>
+      <c r="E120">
+        <v>0.1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>0.5</v>
+      </c>
+      <c r="C121">
+        <v>0.49</v>
+      </c>
+      <c r="D121">
+        <v>0.6</v>
+      </c>
+      <c r="E121">
+        <v>0.64</v>
+      </c>
+      <c r="F121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="C122">
+        <v>0.5</v>
+      </c>
+      <c r="D122">
+        <v>0.7</v>
+      </c>
+      <c r="E122">
+        <v>0.6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>0.87</v>
+      </c>
+      <c r="C123">
+        <v>0.75</v>
+      </c>
+      <c r="D123">
+        <v>0.97</v>
+      </c>
+      <c r="E123">
+        <v>0.9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>0.52</v>
+      </c>
+      <c r="C124">
+        <v>-0.35</v>
+      </c>
+      <c r="D124">
+        <v>0.67</v>
+      </c>
+      <c r="E124">
+        <v>-0.2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>-0.53</v>
+      </c>
+      <c r="C125">
+        <v>-1.1</v>
+      </c>
+      <c r="D125">
+        <v>-0.53</v>
+      </c>
+      <c r="E125">
+        <v>-0.85</v>
+      </c>
+      <c r="F125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>0.75</v>
+      </c>
+      <c r="C126">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D126">
+        <v>0.85</v>
+      </c>
+      <c r="E126">
+        <v>0.7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>0.53</v>
+      </c>
+      <c r="C127">
+        <v>0.3</v>
+      </c>
+      <c r="D127">
+        <v>0.53</v>
+      </c>
+      <c r="E127">
+        <v>0.55</v>
+      </c>
+      <c r="F127" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>-0.4</v>
+      </c>
+      <c r="D128">
+        <v>0.1</v>
+      </c>
+      <c r="E128">
+        <v>-0.2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>0.09</v>
+      </c>
+      <c r="C129">
+        <v>-0.35</v>
+      </c>
+      <c r="D129">
+        <v>0.09</v>
+      </c>
+      <c r="E129">
+        <v>-0.1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>0.45</v>
+      </c>
+      <c r="C130">
+        <v>0.49</v>
+      </c>
+      <c r="D130">
+        <v>0.6</v>
+      </c>
+      <c r="E130">
+        <v>0.59</v>
+      </c>
+      <c r="F130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>0.92</v>
+      </c>
+      <c r="C131">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D131">
+        <v>1.02</v>
+      </c>
+      <c r="E131">
+        <v>0.7</v>
+      </c>
+      <c r="F131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>0.31</v>
+      </c>
+      <c r="C132">
+        <v>-0.1</v>
+      </c>
+      <c r="D132">
+        <v>0.31</v>
+      </c>
+      <c r="E132">
+        <v>0.15</v>
+      </c>
+      <c r="F132" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C133">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D133">
+        <v>0.93</v>
+      </c>
+      <c r="E133">
+        <v>0.7</v>
+      </c>
+      <c r="F133" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>0.5</v>
+      </c>
+      <c r="C134">
+        <v>0.5</v>
+      </c>
+      <c r="D134">
+        <v>0.65</v>
+      </c>
+      <c r="E134">
+        <v>0.6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="C135">
+        <v>0.62</v>
+      </c>
+      <c r="D135">
+        <v>0.25</v>
+      </c>
+      <c r="E135">
+        <v>0.72</v>
+      </c>
+      <c r="F135" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>0.77</v>
+      </c>
+      <c r="C136">
+        <v>0.65</v>
+      </c>
+      <c r="D136">
+        <v>0.92</v>
+      </c>
+      <c r="E136">
+        <v>0.75</v>
+      </c>
+      <c r="F136" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>0.5</v>
+      </c>
+      <c r="C137">
+        <v>0.5</v>
+      </c>
+      <c r="D137">
+        <v>0.65</v>
+      </c>
+      <c r="E137">
+        <v>0.6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>0.77</v>
+      </c>
+      <c r="C138">
+        <v>0.73</v>
+      </c>
+      <c r="D138">
+        <v>0.92</v>
+      </c>
+      <c r="E138">
+        <v>0.83</v>
+      </c>
+      <c r="F138" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>0.16</v>
+      </c>
+      <c r="C139">
+        <v>-0.32</v>
+      </c>
+      <c r="D139">
+        <v>0.26</v>
+      </c>
+      <c r="E139">
+        <v>-0.12</v>
+      </c>
+      <c r="F139" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>0.05</v>
+      </c>
+      <c r="C140">
+        <v>-0.45</v>
+      </c>
+      <c r="D140">
+        <v>0.05</v>
+      </c>
+      <c r="E140">
+        <v>-0.2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>0.9</v>
+      </c>
+      <c r="C141">
+        <v>0.85</v>
+      </c>
+      <c r="D141">
+        <v>1.05</v>
+      </c>
+      <c r="E141">
+        <v>0.95</v>
+      </c>
+      <c r="F141" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>0.7</v>
+      </c>
+      <c r="C142">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D142">
+        <v>0.85</v>
+      </c>
+      <c r="E142">
+        <v>0.8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/python_code/data/map 5/all_agents_score.xlsx
+++ b/python_code/data/map 5/all_agents_score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>computer_score</t>
   </si>
@@ -238,222 +238,6 @@
     <t>-Ms99IDhbSnEbmxXBhYR</t>
   </si>
   <si>
-    <t>-MsauRljHAjxxD9HBaGp</t>
-  </si>
-  <si>
-    <t>-MsauSB5JVOX4oxUR5j_</t>
-  </si>
-  <si>
-    <t>-MsauSVrS-lOK0f3lQHR</t>
-  </si>
-  <si>
-    <t>-MsauXxcJ_MSgqpl76-X</t>
-  </si>
-  <si>
-    <t>-MsauYlnUk5jaoJFNWxb</t>
-  </si>
-  <si>
-    <t>-Msauj4egD4t92hYw7SQ</t>
-  </si>
-  <si>
-    <t>-MsaumSVz74bKgQ2nLDX</t>
-  </si>
-  <si>
-    <t>-MsautExMivVysgpdeV6</t>
-  </si>
-  <si>
-    <t>-Msav5Gu7uoYG8qRYvrm</t>
-  </si>
-  <si>
-    <t>-Msav7YY2AsVBkhu2K9K</t>
-  </si>
-  <si>
-    <t>-Msav92eeRih_1c_MsCU</t>
-  </si>
-  <si>
-    <t>-MsavWinjz9fbbAe6u7h</t>
-  </si>
-  <si>
-    <t>-MsavXNep-xekmfzy2rY</t>
-  </si>
-  <si>
-    <t>-Msavm6ystgM46SfQHKZ</t>
-  </si>
-  <si>
-    <t>-Msaw4PMT4vB5qvedf2u</t>
-  </si>
-  <si>
-    <t>-Msax5DgM74-HdTd_EBD</t>
-  </si>
-  <si>
-    <t>-MsaxGuiWAvXMjM96GKs</t>
-  </si>
-  <si>
-    <t>-MsaxMbZvjDJYezucubT</t>
-  </si>
-  <si>
-    <t>-MsaxZdUmdK1fBdv86cx</t>
-  </si>
-  <si>
-    <t>-MsaxqLu287O3dtnbM7Q</t>
-  </si>
-  <si>
-    <t>-Msay-pTxeEaDx221XW-</t>
-  </si>
-  <si>
-    <t>-Msay0NZ0vlI6xVcl9DT</t>
-  </si>
-  <si>
-    <t>-MsayNxS_IoTWfupbHOq</t>
-  </si>
-  <si>
-    <t>-MsayiPdrBZistZyZbJy</t>
-  </si>
-  <si>
-    <t>-MsazqnPNIMKg8FfEDtv</t>
-  </si>
-  <si>
-    <t>-Msb0BLu4Z1_x9U9gTxp</t>
-  </si>
-  <si>
-    <t>-Msb0iDHcGBNmHVrAzjy</t>
-  </si>
-  <si>
-    <t>-Msb1PB7r0x9s-kTPb11</t>
-  </si>
-  <si>
-    <t>-Msb2wTKCIJ1NYc9ixER</t>
-  </si>
-  <si>
-    <t>-Msb32xz0VtKKGojjkjC</t>
-  </si>
-  <si>
-    <t>-Msb3DKcSLU4CJi4z0-m</t>
-  </si>
-  <si>
-    <t>-Msb58dQwhQRILmymsEU</t>
-  </si>
-  <si>
-    <t>-Msb5SRNHQ1UZ2-y7OnD</t>
-  </si>
-  <si>
-    <t>-Msb6cq4eGzwgJ23nf2O</t>
-  </si>
-  <si>
-    <t>-Msb7wxtqQ-yWj234n0u</t>
-  </si>
-  <si>
-    <t>-MsbAHOOcg4X5elN182l</t>
-  </si>
-  <si>
-    <t>-MsbHabZdFgXL8M8umJN</t>
-  </si>
-  <si>
-    <t>-MsbLMgqs0rygJQtF1LO</t>
-  </si>
-  <si>
-    <t>-MsbM21CSblxiZUpLCQy</t>
-  </si>
-  <si>
-    <t>-Msbfz_Q3OpvgTN3aTi6</t>
-  </si>
-  <si>
-    <t>-MsgAEXLOtXEqqfH0KlM</t>
-  </si>
-  <si>
-    <t>-MsgAEwyjEh-yzk912c2</t>
-  </si>
-  <si>
-    <t>-MsgAH0pCTKe8xGd0x_B</t>
-  </si>
-  <si>
-    <t>-MsgAKvzI2Wv-QH2Hq-A</t>
-  </si>
-  <si>
-    <t>-MsgAMUwYTMpZpjoNQZR</t>
-  </si>
-  <si>
-    <t>-MsgAMsSDTPlFVPxbs5i</t>
-  </si>
-  <si>
-    <t>-MsgAN8ESX7sswo3BiV6</t>
-  </si>
-  <si>
-    <t>-MsgARTOtxuKWMV5UCkN</t>
-  </si>
-  <si>
-    <t>-MsgAc30GCmnZmodKdaB</t>
-  </si>
-  <si>
-    <t>-MsgAonf24h9XmmIx3X-</t>
-  </si>
-  <si>
-    <t>-MsgAopGufwjZuksS2gR</t>
-  </si>
-  <si>
-    <t>-MsgBZUf81IybTrLIU8v</t>
-  </si>
-  <si>
-    <t>-MsgBxLiKur3rdNKHkRw</t>
-  </si>
-  <si>
-    <t>-MsgC3PuKJ0cgfG0tMYL</t>
-  </si>
-  <si>
-    <t>-MsgCvFl3k8vmQrzZQ78</t>
-  </si>
-  <si>
-    <t>-MsgERxea3QFryTagjrK</t>
-  </si>
-  <si>
-    <t>-MsgGcYafVurq46yccG7</t>
-  </si>
-  <si>
-    <t>-MsgI6iToDalQih0fhpY</t>
-  </si>
-  <si>
-    <t>-MsgIi2-CV-aGAgSzFDQ</t>
-  </si>
-  <si>
-    <t>-MsgIqPSYuSoci00Ga1z</t>
-  </si>
-  <si>
-    <t>-MsgJhers6htnOgB79hc</t>
-  </si>
-  <si>
-    <t>-MsgKMiTTLIetkOYWAoP</t>
-  </si>
-  <si>
-    <t>-MsgOZlcTOXpIdPf64x9</t>
-  </si>
-  <si>
-    <t>-MsgPGDdb3H4UITMdJ54</t>
-  </si>
-  <si>
-    <t>-MsgRr7TK7GcFg7htlpg</t>
-  </si>
-  <si>
-    <t>-MsgRyn2tztlDQxPnY8l</t>
-  </si>
-  <si>
-    <t>-Msg_BkQkEt-eUzXVfSt</t>
-  </si>
-  <si>
-    <t>-MsgaG9NB59MSFmWLkKV</t>
-  </si>
-  <si>
-    <t>-MsgbAJzGfW2r79QD_TQ</t>
-  </si>
-  <si>
-    <t>-MsgiNYkpq3-jiVXAeCi</t>
-  </si>
-  <si>
-    <t>-MsgjIKhnxLbvtFgY4PR</t>
-  </si>
-  <si>
-    <t>-Msgkodugfx49ojmJEaA</t>
-  </si>
-  <si>
     <t>TSP</t>
   </si>
   <si>
@@ -467,12 +251,6 @@
   </si>
   <si>
     <t>closest</t>
-  </si>
-  <si>
-    <t>sarl ddqn distribution</t>
-  </si>
-  <si>
-    <t>ddqn distribution</t>
   </si>
 </sst>
 </file>
@@ -830,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,7 +648,7 @@
         <v>1.2</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -890,7 +668,7 @@
         <v>0.9</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -910,7 +688,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -930,7 +708,7 @@
         <v>0.78</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -950,7 +728,7 @@
         <v>0.48</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -970,7 +748,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -990,7 +768,7 @@
         <v>0.05</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1010,7 +788,7 @@
         <v>0.9</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1030,7 +808,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1050,7 +828,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1070,7 +848,7 @@
         <v>-0.32</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1090,7 +868,7 @@
         <v>-1.3</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1110,7 +888,7 @@
         <v>0.9</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1130,7 +908,7 @@
         <v>-1.2</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1150,7 +928,7 @@
         <v>0.8</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1170,7 +948,7 @@
         <v>0.9</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1190,7 +968,7 @@
         <v>0.85</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1210,7 +988,7 @@
         <v>0.9</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1230,7 +1008,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1250,7 +1028,7 @@
         <v>0.45</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1270,7 +1048,7 @@
         <v>0.9</v>
       </c>
       <c r="F22" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1290,7 +1068,7 @@
         <v>0.55</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1310,7 +1088,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1330,7 +1108,7 @@
         <v>0.9</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1350,7 +1128,7 @@
         <v>0.9</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1370,7 +1148,7 @@
         <v>0.6</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1390,7 +1168,7 @@
         <v>0.87</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1410,7 +1188,7 @@
         <v>0.9</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1430,7 +1208,7 @@
         <v>-0.04</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1450,7 +1228,7 @@
         <v>0.8</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1470,7 +1248,7 @@
         <v>-0.6</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1490,7 +1268,7 @@
         <v>-0.7</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1510,7 +1288,7 @@
         <v>0.04</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1530,7 +1308,7 @@
         <v>0.05</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1550,7 +1328,7 @@
         <v>0.7</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1570,7 +1348,7 @@
         <v>0.5</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1590,7 +1368,7 @@
         <v>0.89</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1610,7 +1388,7 @@
         <v>-1.12</v>
       </c>
       <c r="F39" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1630,7 +1408,7 @@
         <v>-0.3</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1650,7 +1428,7 @@
         <v>0.8</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1670,7 +1448,7 @@
         <v>0.8</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1690,7 +1468,7 @@
         <v>0.05</v>
       </c>
       <c r="F43" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1710,7 +1488,7 @@
         <v>0.1</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1730,7 +1508,7 @@
         <v>-0.05</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1750,7 +1528,7 @@
         <v>0.9</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1770,7 +1548,7 @@
         <v>-0.36</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1790,7 +1568,7 @@
         <v>-0.55</v>
       </c>
       <c r="F48" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1810,7 +1588,7 @@
         <v>0.95</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1830,7 +1608,7 @@
         <v>-0.15</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1850,7 +1628,7 @@
         <v>1.15</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1870,7 +1648,7 @@
         <v>-0.4</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1890,7 +1668,7 @@
         <v>0.9</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1910,7 +1688,7 @@
         <v>0.05</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1930,7 +1708,7 @@
         <v>0.9</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1950,7 +1728,7 @@
         <v>0.15</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1970,7 +1748,7 @@
         <v>0.75</v>
       </c>
       <c r="F57" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1990,7 +1768,7 @@
         <v>-0.35</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2010,7 +1788,7 @@
         <v>0.9</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2030,7 +1808,7 @@
         <v>0.75</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2050,7 +1828,7 @@
         <v>0.05</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2070,7 +1848,7 @@
         <v>-0.1</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2090,7 +1868,7 @@
         <v>0.2</v>
       </c>
       <c r="F63" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2110,7 +1888,7 @@
         <v>-0</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2130,7 +1908,7 @@
         <v>0.05</v>
       </c>
       <c r="F65" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2150,7 +1928,7 @@
         <v>-1.1</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2170,7 +1948,7 @@
         <v>0.25</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2190,7 +1968,7 @@
         <v>1.17</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2210,7 +1988,7 @@
         <v>0.1</v>
       </c>
       <c r="F69" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2230,1447 +2008,7 @@
         <v>0.5</v>
       </c>
       <c r="F70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71">
-        <v>1.11</v>
-      </c>
-      <c r="C71">
-        <v>0.75</v>
-      </c>
-      <c r="D71">
-        <v>1.21</v>
-      </c>
-      <c r="E71">
-        <v>0.9</v>
-      </c>
-      <c r="F71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72">
-        <v>-0.31</v>
-      </c>
-      <c r="C72">
-        <v>-1.67</v>
-      </c>
-      <c r="D72">
-        <v>-0.31</v>
-      </c>
-      <c r="E72">
-        <v>-1.42</v>
-      </c>
-      <c r="F72" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73">
-        <v>1.14</v>
-      </c>
-      <c r="C73">
-        <v>-0.04000000000000001</v>
-      </c>
-      <c r="D73">
-        <v>1.14</v>
-      </c>
-      <c r="E73">
-        <v>0.21</v>
-      </c>
-      <c r="F73" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74">
-        <v>1.14</v>
-      </c>
-      <c r="C74">
-        <v>-0.3</v>
-      </c>
-      <c r="D74">
-        <v>1.14</v>
-      </c>
-      <c r="E74">
-        <v>-0.05</v>
-      </c>
-      <c r="F74" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75">
-        <v>1.11</v>
-      </c>
-      <c r="C75">
-        <v>0.75</v>
-      </c>
-      <c r="D75">
-        <v>1.21</v>
-      </c>
-      <c r="E75">
-        <v>0.9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76">
-        <v>1.11</v>
-      </c>
-      <c r="C76">
-        <v>0.75</v>
-      </c>
-      <c r="D76">
-        <v>1.21</v>
-      </c>
-      <c r="E76">
-        <v>0.9</v>
-      </c>
-      <c r="F76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77">
-        <v>1.11</v>
-      </c>
-      <c r="C77">
-        <v>0.75</v>
-      </c>
-      <c r="D77">
-        <v>1.21</v>
-      </c>
-      <c r="E77">
-        <v>0.9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78">
-        <v>1.11</v>
-      </c>
-      <c r="C78">
-        <v>0.75</v>
-      </c>
-      <c r="D78">
-        <v>1.21</v>
-      </c>
-      <c r="E78">
-        <v>0.9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79">
-        <v>1.03</v>
-      </c>
-      <c r="C79">
-        <v>-0.41</v>
-      </c>
-      <c r="D79">
-        <v>1.03</v>
-      </c>
-      <c r="E79">
-        <v>-0.16</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80">
-        <v>0.95</v>
-      </c>
-      <c r="C80">
-        <v>-1.1</v>
-      </c>
-      <c r="D80">
-        <v>0.95</v>
-      </c>
-      <c r="E80">
-        <v>-0.85</v>
-      </c>
-      <c r="F80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81">
-        <v>0.92</v>
-      </c>
-      <c r="C81">
-        <v>-0.43</v>
-      </c>
-      <c r="D81">
-        <v>0.92</v>
-      </c>
-      <c r="E81">
-        <v>-0.18</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82">
-        <v>1.12</v>
-      </c>
-      <c r="C82">
-        <v>-0.2</v>
-      </c>
-      <c r="D82">
-        <v>1.12</v>
-      </c>
-      <c r="E82">
-        <v>0.05</v>
-      </c>
-      <c r="F82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83">
-        <v>1.13</v>
-      </c>
-      <c r="C83">
-        <v>-0.18</v>
-      </c>
-      <c r="D83">
-        <v>1.13</v>
-      </c>
-      <c r="E83">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84">
-        <v>1.1</v>
-      </c>
-      <c r="C84">
-        <v>0.74</v>
-      </c>
-      <c r="D84">
-        <v>1.2</v>
-      </c>
-      <c r="E84">
-        <v>0.89</v>
-      </c>
-      <c r="F84" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85">
-        <v>0.9700000000000001</v>
-      </c>
-      <c r="C85">
-        <v>0.3</v>
-      </c>
-      <c r="D85">
-        <v>1.07</v>
-      </c>
-      <c r="E85">
-        <v>0.45</v>
-      </c>
-      <c r="F85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86">
-        <v>0.66</v>
-      </c>
-      <c r="C86">
-        <v>-1.05</v>
-      </c>
-      <c r="D86">
-        <v>0.66</v>
-      </c>
-      <c r="E86">
-        <v>-0.8</v>
-      </c>
-      <c r="F86" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="C87">
-        <v>-1.27</v>
-      </c>
-      <c r="D87">
-        <v>0.68</v>
-      </c>
-      <c r="E87">
-        <v>-1.12</v>
-      </c>
-      <c r="F87" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88">
-        <v>1.04</v>
-      </c>
-      <c r="C88">
-        <v>0.45</v>
-      </c>
-      <c r="D88">
-        <v>1.14</v>
-      </c>
-      <c r="E88">
-        <v>0.6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89">
-        <v>1.09</v>
-      </c>
-      <c r="C89">
-        <v>0.74</v>
-      </c>
-      <c r="D89">
-        <v>1.19</v>
-      </c>
-      <c r="E89">
-        <v>0.89</v>
-      </c>
-      <c r="F89" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90">
-        <v>1.07</v>
-      </c>
-      <c r="C90">
-        <v>0.71</v>
-      </c>
-      <c r="D90">
-        <v>1.17</v>
-      </c>
-      <c r="E90">
-        <v>0.86</v>
-      </c>
-      <c r="F90" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91">
-        <v>1.03</v>
-      </c>
-      <c r="C91">
-        <v>0.35</v>
-      </c>
-      <c r="D91">
-        <v>1.13</v>
-      </c>
-      <c r="E91">
-        <v>0.5</v>
-      </c>
-      <c r="F91" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92">
-        <v>1.04</v>
-      </c>
-      <c r="C92">
-        <v>0.5599999999999999</v>
-      </c>
-      <c r="D92">
-        <v>1.14</v>
-      </c>
-      <c r="E92">
-        <v>0.71</v>
-      </c>
-      <c r="F92" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93">
-        <v>1.11</v>
-      </c>
-      <c r="C93">
-        <v>0.75</v>
-      </c>
-      <c r="D93">
-        <v>1.21</v>
-      </c>
-      <c r="E93">
-        <v>0.9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94">
-        <v>0.99</v>
-      </c>
-      <c r="C94">
-        <v>-0.29</v>
-      </c>
-      <c r="D94">
-        <v>0.99</v>
-      </c>
-      <c r="E94">
-        <v>-0.04</v>
-      </c>
-      <c r="F94" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95">
-        <v>1.11</v>
-      </c>
-      <c r="C95">
-        <v>0.75</v>
-      </c>
-      <c r="D95">
-        <v>1.21</v>
-      </c>
-      <c r="E95">
-        <v>0.9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96">
-        <v>1.1</v>
-      </c>
-      <c r="C96">
-        <v>-0.38</v>
-      </c>
-      <c r="D96">
-        <v>1.1</v>
-      </c>
-      <c r="E96">
-        <v>-0.13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97">
-        <v>1.11</v>
-      </c>
-      <c r="C97">
-        <v>0.75</v>
-      </c>
-      <c r="D97">
-        <v>1.21</v>
-      </c>
-      <c r="E97">
-        <v>0.9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98">
-        <v>1.12</v>
-      </c>
-      <c r="C98">
-        <v>-0.35</v>
-      </c>
-      <c r="D98">
-        <v>1.12</v>
-      </c>
-      <c r="E98">
-        <v>-0.1</v>
-      </c>
-      <c r="F98" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99">
-        <v>1.18</v>
-      </c>
-      <c r="C99">
-        <v>-0.1</v>
-      </c>
-      <c r="D99">
-        <v>1.18</v>
-      </c>
-      <c r="E99">
-        <v>0.15</v>
-      </c>
-      <c r="F99" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100">
-        <v>1.11</v>
-      </c>
-      <c r="C100">
-        <v>0.75</v>
-      </c>
-      <c r="D100">
-        <v>1.21</v>
-      </c>
-      <c r="E100">
-        <v>0.9</v>
-      </c>
-      <c r="F100" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101">
-        <v>1.11</v>
-      </c>
-      <c r="C101">
-        <v>0.75</v>
-      </c>
-      <c r="D101">
-        <v>1.21</v>
-      </c>
-      <c r="E101">
-        <v>0.9</v>
-      </c>
-      <c r="F101" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102">
-        <v>1.01</v>
-      </c>
-      <c r="C102">
-        <v>0.61</v>
-      </c>
-      <c r="D102">
-        <v>1.11</v>
-      </c>
-      <c r="E102">
-        <v>0.76</v>
-      </c>
-      <c r="F102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103">
-        <v>1.11</v>
-      </c>
-      <c r="C103">
-        <v>0.75</v>
-      </c>
-      <c r="D103">
-        <v>1.21</v>
-      </c>
-      <c r="E103">
-        <v>0.9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104">
-        <v>1.04</v>
-      </c>
-      <c r="C104">
-        <v>0.4</v>
-      </c>
-      <c r="D104">
-        <v>1.14</v>
-      </c>
-      <c r="E104">
-        <v>0.55</v>
-      </c>
-      <c r="F104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105">
-        <v>1.08</v>
-      </c>
-      <c r="C105">
-        <v>0.72</v>
-      </c>
-      <c r="D105">
-        <v>1.18</v>
-      </c>
-      <c r="E105">
-        <v>0.87</v>
-      </c>
-      <c r="F105" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106">
-        <v>1.04</v>
-      </c>
-      <c r="C106">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="D106">
-        <v>1.14</v>
-      </c>
-      <c r="E106">
-        <v>0.59</v>
-      </c>
-      <c r="F106" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107">
-        <v>1.12</v>
-      </c>
-      <c r="C107">
-        <v>-0.16</v>
-      </c>
-      <c r="D107">
-        <v>1.12</v>
-      </c>
-      <c r="E107">
-        <v>0.09</v>
-      </c>
-      <c r="F107" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108">
-        <v>1.13</v>
-      </c>
-      <c r="C108">
-        <v>-0.35</v>
-      </c>
-      <c r="D108">
-        <v>1.13</v>
-      </c>
-      <c r="E108">
-        <v>-0.1</v>
-      </c>
-      <c r="F108" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109">
-        <v>1.15</v>
-      </c>
-      <c r="C109">
-        <v>-0.2</v>
-      </c>
-      <c r="D109">
-        <v>1.15</v>
-      </c>
-      <c r="E109">
-        <v>0.05</v>
-      </c>
-      <c r="F109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110">
-        <v>1.14</v>
-      </c>
-      <c r="C110">
-        <v>-0.25</v>
-      </c>
-      <c r="D110">
-        <v>1.14</v>
-      </c>
-      <c r="E110">
-        <v>-0</v>
-      </c>
-      <c r="F110" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111">
-        <v>0.75</v>
-      </c>
-      <c r="C111">
-        <v>0.83</v>
-      </c>
-      <c r="D111">
-        <v>0.85</v>
-      </c>
-      <c r="E111">
-        <v>0.98</v>
-      </c>
-      <c r="F111" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112">
-        <v>0.009999999999999995</v>
-      </c>
-      <c r="C112">
-        <v>-0.19</v>
-      </c>
-      <c r="D112">
-        <v>0.06</v>
-      </c>
-      <c r="E112">
-        <v>0.01</v>
-      </c>
-      <c r="F112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113">
-        <v>0.75</v>
-      </c>
-      <c r="C113">
-        <v>0.75</v>
-      </c>
-      <c r="D113">
-        <v>0.85</v>
-      </c>
-      <c r="E113">
-        <v>0.9</v>
-      </c>
-      <c r="F113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="C114">
-        <v>-0.4</v>
-      </c>
-      <c r="D114">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="E114">
-        <v>-0.15</v>
-      </c>
-      <c r="F114" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115">
-        <v>0.87</v>
-      </c>
-      <c r="C115">
-        <v>0.75</v>
-      </c>
-      <c r="D115">
-        <v>0.97</v>
-      </c>
-      <c r="E115">
-        <v>0.9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116">
-        <v>0.7</v>
-      </c>
-      <c r="C116">
-        <v>0.74</v>
-      </c>
-      <c r="D116">
-        <v>0.85</v>
-      </c>
-      <c r="E116">
-        <v>0.84</v>
-      </c>
-      <c r="F116" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117">
-        <v>0.49</v>
-      </c>
-      <c r="C117">
-        <v>0.49</v>
-      </c>
-      <c r="D117">
-        <v>0.64</v>
-      </c>
-      <c r="E117">
-        <v>0.59</v>
-      </c>
-      <c r="F117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118">
-        <v>0.15</v>
-      </c>
-      <c r="C118">
-        <v>0.15</v>
-      </c>
-      <c r="D118">
-        <v>0.25</v>
-      </c>
-      <c r="E118">
-        <v>0.3</v>
-      </c>
-      <c r="F118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119">
-        <v>0.87</v>
-      </c>
-      <c r="C119">
-        <v>0.75</v>
-      </c>
-      <c r="D119">
-        <v>0.97</v>
-      </c>
-      <c r="E119">
-        <v>0.9</v>
-      </c>
-      <c r="F119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0.2</v>
-      </c>
-      <c r="E120">
-        <v>0.1</v>
-      </c>
-      <c r="F120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121">
-        <v>0.5</v>
-      </c>
-      <c r="C121">
-        <v>0.49</v>
-      </c>
-      <c r="D121">
-        <v>0.6</v>
-      </c>
-      <c r="E121">
-        <v>0.64</v>
-      </c>
-      <c r="F121" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122">
-        <v>0.5499999999999999</v>
-      </c>
-      <c r="C122">
-        <v>0.5</v>
-      </c>
-      <c r="D122">
-        <v>0.7</v>
-      </c>
-      <c r="E122">
-        <v>0.6</v>
-      </c>
-      <c r="F122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123">
-        <v>0.87</v>
-      </c>
-      <c r="C123">
-        <v>0.75</v>
-      </c>
-      <c r="D123">
-        <v>0.97</v>
-      </c>
-      <c r="E123">
-        <v>0.9</v>
-      </c>
-      <c r="F123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124">
-        <v>0.52</v>
-      </c>
-      <c r="C124">
-        <v>-0.35</v>
-      </c>
-      <c r="D124">
-        <v>0.67</v>
-      </c>
-      <c r="E124">
-        <v>-0.2</v>
-      </c>
-      <c r="F124" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125">
-        <v>-0.53</v>
-      </c>
-      <c r="C125">
-        <v>-1.1</v>
-      </c>
-      <c r="D125">
-        <v>-0.53</v>
-      </c>
-      <c r="E125">
-        <v>-0.85</v>
-      </c>
-      <c r="F125" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126">
-        <v>0.75</v>
-      </c>
-      <c r="C126">
-        <v>0.5499999999999999</v>
-      </c>
-      <c r="D126">
-        <v>0.85</v>
-      </c>
-      <c r="E126">
-        <v>0.7</v>
-      </c>
-      <c r="F126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127">
-        <v>0.53</v>
-      </c>
-      <c r="C127">
-        <v>0.3</v>
-      </c>
-      <c r="D127">
-        <v>0.53</v>
-      </c>
-      <c r="E127">
-        <v>0.55</v>
-      </c>
-      <c r="F127" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>-0.4</v>
-      </c>
-      <c r="D128">
-        <v>0.1</v>
-      </c>
-      <c r="E128">
-        <v>-0.2</v>
-      </c>
-      <c r="F128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129">
-        <v>0.09</v>
-      </c>
-      <c r="C129">
-        <v>-0.35</v>
-      </c>
-      <c r="D129">
-        <v>0.09</v>
-      </c>
-      <c r="E129">
-        <v>-0.1</v>
-      </c>
-      <c r="F129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130">
-        <v>0.45</v>
-      </c>
-      <c r="C130">
-        <v>0.49</v>
-      </c>
-      <c r="D130">
-        <v>0.6</v>
-      </c>
-      <c r="E130">
-        <v>0.59</v>
-      </c>
-      <c r="F130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131">
-        <v>0.92</v>
-      </c>
-      <c r="C131">
-        <v>0.5499999999999999</v>
-      </c>
-      <c r="D131">
-        <v>1.02</v>
-      </c>
-      <c r="E131">
-        <v>0.7</v>
-      </c>
-      <c r="F131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132">
-        <v>0.31</v>
-      </c>
-      <c r="C132">
-        <v>-0.1</v>
-      </c>
-      <c r="D132">
-        <v>0.31</v>
-      </c>
-      <c r="E132">
-        <v>0.15</v>
-      </c>
-      <c r="F132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="C133">
-        <v>0.5499999999999999</v>
-      </c>
-      <c r="D133">
-        <v>0.93</v>
-      </c>
-      <c r="E133">
-        <v>0.7</v>
-      </c>
-      <c r="F133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134">
-        <v>0.5</v>
-      </c>
-      <c r="C134">
-        <v>0.5</v>
-      </c>
-      <c r="D134">
-        <v>0.65</v>
-      </c>
-      <c r="E134">
-        <v>0.6</v>
-      </c>
-      <c r="F134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="C135">
-        <v>0.62</v>
-      </c>
-      <c r="D135">
-        <v>0.25</v>
-      </c>
-      <c r="E135">
-        <v>0.72</v>
-      </c>
-      <c r="F135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136">
-        <v>0.77</v>
-      </c>
-      <c r="C136">
-        <v>0.65</v>
-      </c>
-      <c r="D136">
-        <v>0.92</v>
-      </c>
-      <c r="E136">
-        <v>0.75</v>
-      </c>
-      <c r="F136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137">
-        <v>0.5</v>
-      </c>
-      <c r="C137">
-        <v>0.5</v>
-      </c>
-      <c r="D137">
-        <v>0.65</v>
-      </c>
-      <c r="E137">
-        <v>0.6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138">
-        <v>0.77</v>
-      </c>
-      <c r="C138">
-        <v>0.73</v>
-      </c>
-      <c r="D138">
-        <v>0.92</v>
-      </c>
-      <c r="E138">
-        <v>0.83</v>
-      </c>
-      <c r="F138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139">
-        <v>0.16</v>
-      </c>
-      <c r="C139">
-        <v>-0.32</v>
-      </c>
-      <c r="D139">
-        <v>0.26</v>
-      </c>
-      <c r="E139">
-        <v>-0.12</v>
-      </c>
-      <c r="F139" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140">
-        <v>0.05</v>
-      </c>
-      <c r="C140">
-        <v>-0.45</v>
-      </c>
-      <c r="D140">
-        <v>0.05</v>
-      </c>
-      <c r="E140">
-        <v>-0.2</v>
-      </c>
-      <c r="F140" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141">
-        <v>0.9</v>
-      </c>
-      <c r="C141">
-        <v>0.85</v>
-      </c>
-      <c r="D141">
-        <v>1.05</v>
-      </c>
-      <c r="E141">
-        <v>0.95</v>
-      </c>
-      <c r="F141" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142">
-        <v>0.7</v>
-      </c>
-      <c r="C142">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="D142">
-        <v>0.85</v>
-      </c>
-      <c r="E142">
-        <v>0.8</v>
-      </c>
-      <c r="F142" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/python_code/data/map 5/all_agents_score.xlsx
+++ b/python_code/data/map 5/all_agents_score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="343">
   <si>
     <t>computer_score</t>
   </si>
@@ -121,6 +121,9 @@
     <t>-Ms8bfwdYoVf-4ViTzjg</t>
   </si>
   <si>
+    <t>-Ms8bpAWTlk9bHs-IAHV</t>
+  </si>
+  <si>
     <t>-Ms8br5gyAPbPb04pw4w</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>-Ms8c6JrVxpKQDWIhUj5</t>
   </si>
   <si>
+    <t>-Ms8c6lwZ0NtD9xxz134</t>
+  </si>
+  <si>
     <t>-Ms8cDmWU4EGt6z1HqFp</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t>-Ms8cdtahkj-D-zLgvDp</t>
   </si>
   <si>
+    <t>-Ms8cfCn_18N_W40rhcL</t>
+  </si>
+  <si>
     <t>-Ms8ciXyqjOxRwhTJ7tf</t>
   </si>
   <si>
@@ -163,12 +172,21 @@
     <t>-Ms8cmYXmh8Jnkv0Y0ph</t>
   </si>
   <si>
+    <t>-Ms8ct8c-t1Zc720cZva</t>
+  </si>
+  <si>
     <t>-Ms8d5i_I9L0h_pJ7INQ</t>
   </si>
   <si>
     <t>-Ms8d9jDzjJT4MVMmY_N</t>
   </si>
   <si>
+    <t>-Ms8dA9OV-htnuYw9XgC</t>
+  </si>
+  <si>
+    <t>-Ms8dUj-j70BQRwqHQVb</t>
+  </si>
+  <si>
     <t>-Ms8dava6Ed1ilbHIipM</t>
   </si>
   <si>
@@ -178,39 +196,336 @@
     <t>-Ms8dhES5Av1GA0gpS41</t>
   </si>
   <si>
+    <t>-Ms8diRJajaF3HsB6XkW</t>
+  </si>
+  <si>
+    <t>-Ms8e4JfBexMiB_rlmVH</t>
+  </si>
+  <si>
     <t>-Ms8e6aoF27p7OVR_oqd</t>
   </si>
   <si>
     <t>-Ms8eLCMuKkj-IrQdisL</t>
   </si>
   <si>
+    <t>-Ms8ePa9Rhu1znGuMe04</t>
+  </si>
+  <si>
     <t>-Ms8eRZGXOxnK8p0EL84</t>
   </si>
   <si>
+    <t>-Ms8eghpiRwmjy-uZl_h</t>
+  </si>
+  <si>
+    <t>-Ms8et6Ig1-5aqfN27zq</t>
+  </si>
+  <si>
+    <t>-Ms8fBuanTX3a-odh4YV</t>
+  </si>
+  <si>
+    <t>-Ms8fMXp1fp1QDZCauOo</t>
+  </si>
+  <si>
+    <t>-Ms8fOgDVnnyOzjd3Wqm</t>
+  </si>
+  <si>
+    <t>-Ms8fX9fDTYXLHmpD4YO</t>
+  </si>
+  <si>
     <t>-Ms8fcodZKcMspvMPChH</t>
   </si>
   <si>
     <t>-Ms8ffTw270dSYWGkdol</t>
   </si>
   <si>
+    <t>-Ms8fhXWs4mX7au5WZiO</t>
+  </si>
+  <si>
     <t>-Ms8fvW21gLrqyCdFt4r</t>
   </si>
   <si>
+    <t>-Ms8gS2ud8sHkAP_weKX</t>
+  </si>
+  <si>
     <t>-Ms8gSiAy35xwSk0wX7Q</t>
   </si>
   <si>
+    <t>-Ms8gT1ng6f1Cf5Kc1Qk</t>
+  </si>
+  <si>
+    <t>-Ms8gXD-a-9r7KaTf4PK</t>
+  </si>
+  <si>
+    <t>-Ms8glwBmy3ji1KQqymu</t>
+  </si>
+  <si>
+    <t>-Ms8gzkXRjw2x0X0x8QF</t>
+  </si>
+  <si>
     <t>-Ms8hAURGAPBCxSeTE2T</t>
   </si>
   <si>
+    <t>-Ms8hEpbcOMgHlfPScnM</t>
+  </si>
+  <si>
+    <t>-Ms8hGuCppE05BCCEG3I</t>
+  </si>
+  <si>
+    <t>-Ms8hcbqBS6gvqBqmcP8</t>
+  </si>
+  <si>
+    <t>-Ms8hzvQqkzDEGe1AfiX</t>
+  </si>
+  <si>
+    <t>-Ms8i1oSB3r0DQJOxEf-</t>
+  </si>
+  <si>
+    <t>-Ms8iMiom2M5bMq6u4BI</t>
+  </si>
+  <si>
+    <t>-Ms8iNd9qLe2IXIkIbcE</t>
+  </si>
+  <si>
+    <t>-Ms8iSxQDEpgT9wzO1g3</t>
+  </si>
+  <si>
+    <t>-Ms8iavbjM65yBTTyQKO</t>
+  </si>
+  <si>
+    <t>-Ms8ivmL4-R3ucospceK</t>
+  </si>
+  <si>
+    <t>-Ms8iwBiBXXBrQmwa1LP</t>
+  </si>
+  <si>
+    <t>-Ms8j-fjuRqxkmzEYqQp</t>
+  </si>
+  <si>
+    <t>-Ms8j3yR5k6DKMvVSJj7</t>
+  </si>
+  <si>
+    <t>-Ms8jC2jUQnYNsOYPoL7</t>
+  </si>
+  <si>
+    <t>-Ms8jLrHMPiQF4tLfvKR</t>
+  </si>
+  <si>
+    <t>-Ms8jQkpebc8pNfNf_FH</t>
+  </si>
+  <si>
+    <t>-Ms8jShS39i3bvbUTpk7</t>
+  </si>
+  <si>
+    <t>-Ms8jUkk7OxCbHpGV50k</t>
+  </si>
+  <si>
+    <t>-Ms8jW8CX94EbowIodKe</t>
+  </si>
+  <si>
+    <t>-Ms8jZ5-EctmUrGGD2fW</t>
+  </si>
+  <si>
+    <t>-Ms8jk9urkhrOtYxsw6-</t>
+  </si>
+  <si>
+    <t>-Ms8jpLBaOq4BduM-VE2</t>
+  </si>
+  <si>
+    <t>-Ms8jvV2ew8fc9zCDUow</t>
+  </si>
+  <si>
+    <t>-Ms8jwwgjJet90e0jhnw</t>
+  </si>
+  <si>
     <t>-Ms8jzFYZvaJmGE14mZC</t>
   </si>
   <si>
+    <t>-Ms8jzNS692C0IwMq5jq</t>
+  </si>
+  <si>
+    <t>-Ms8k5owSDiLJvnUhxbT</t>
+  </si>
+  <si>
+    <t>-Ms8kBqD5pHjQSPt7jgB</t>
+  </si>
+  <si>
+    <t>-Ms8kBzjabACJNWsh_vX</t>
+  </si>
+  <si>
     <t>-Ms8kCwVCPb8Qz36mN-X</t>
   </si>
   <si>
+    <t>-Ms8kH6kcLJvwnlAlpxa</t>
+  </si>
+  <si>
+    <t>-Ms8kIT9HqoWH-0JO6qS</t>
+  </si>
+  <si>
+    <t>-Ms8kMWuEQE-9M9CVBw3</t>
+  </si>
+  <si>
+    <t>-Ms8kX-L813Z-HZPikNx</t>
+  </si>
+  <si>
+    <t>-Ms8kgk-1oRLoVMLHKtc</t>
+  </si>
+  <si>
+    <t>-Ms8ki6jDPLMsVD0HbD3</t>
+  </si>
+  <si>
+    <t>-Ms8ki_0gpxe0OUFcU8i</t>
+  </si>
+  <si>
+    <t>-Ms8knaGTYF4e8Akf3DL</t>
+  </si>
+  <si>
+    <t>-Ms8kpWG0yrjZLphqFXV</t>
+  </si>
+  <si>
+    <t>-Ms8ksZcJ_wfea1Bj_Nq</t>
+  </si>
+  <si>
+    <t>-Ms8l-8PTtlToABXkMxO</t>
+  </si>
+  <si>
+    <t>-Ms8l29aoKaskp9-nPWE</t>
+  </si>
+  <si>
+    <t>-Ms8l4LhFF58FnoImuNt</t>
+  </si>
+  <si>
+    <t>-Ms8lB10D8ps3-rdcmbj</t>
+  </si>
+  <si>
+    <t>-Ms8lF-y_hl12SZ_qrMw</t>
+  </si>
+  <si>
+    <t>-Ms8lJ_2T1xpg0QoHonH</t>
+  </si>
+  <si>
+    <t>-Ms8lJ_LnRADe7-2jFwA</t>
+  </si>
+  <si>
+    <t>-Ms8l__Bp7w5NzEl6Jld</t>
+  </si>
+  <si>
+    <t>-Ms8laGBbzVf98j_LbyJ</t>
+  </si>
+  <si>
+    <t>-Ms8lcKXynvFIA-etI4u</t>
+  </si>
+  <si>
+    <t>-Ms8lgUEo6XGeFt2ZtBS</t>
+  </si>
+  <si>
+    <t>-Ms8m-HJoFzX9DB1B-yT</t>
+  </si>
+  <si>
+    <t>-Ms8m-cGqWOSW_9FIsw6</t>
+  </si>
+  <si>
+    <t>-Ms8m0CKf8wbjyMaZEjg</t>
+  </si>
+  <si>
+    <t>-Ms8m4-y9jVckI4dfEsl</t>
+  </si>
+  <si>
+    <t>-Ms8mCJYLQfEMxyifzp6</t>
+  </si>
+  <si>
+    <t>-Ms8mHGFRHi7NCFIc6u9</t>
+  </si>
+  <si>
+    <t>-Ms8mLoQ-UOt6fxnhdp5</t>
+  </si>
+  <si>
+    <t>-Ms8mNBDHuTgWJZc_LEf</t>
+  </si>
+  <si>
+    <t>-Ms8mOZSshDtWhQnkTur</t>
+  </si>
+  <si>
+    <t>-Ms8mVJ_R7ZLwYSiDZY7</t>
+  </si>
+  <si>
+    <t>-Ms8mZseYIO-pQ-w2QXv</t>
+  </si>
+  <si>
+    <t>-Ms8mcKqkFq7UbzjtAW-</t>
+  </si>
+  <si>
+    <t>-Ms8mmcV3CzaURkHhvsz</t>
+  </si>
+  <si>
+    <t>-Ms8mnoifuxWbkTph4it</t>
+  </si>
+  <si>
+    <t>-Ms8muqDyrNYTjeH4aiv</t>
+  </si>
+  <si>
+    <t>-Ms8mx-C564Czp7LA2qu</t>
+  </si>
+  <si>
+    <t>-Ms8mzzYDCC9pSbpIEvk</t>
+  </si>
+  <si>
+    <t>-Ms8n8ygSEa8bNcX2XkU</t>
+  </si>
+  <si>
+    <t>-Ms8nFBcRIGVLMUZyO9f</t>
+  </si>
+  <si>
+    <t>-Ms8nFFhFoTo2ElHIe30</t>
+  </si>
+  <si>
+    <t>-Ms8nGfn2kL-FA1c58PJ</t>
+  </si>
+  <si>
     <t>-Ms8nKbxLS8sKfE6F0Jm</t>
   </si>
   <si>
+    <t>-Ms8nQawERD6zwUjKwwE</t>
+  </si>
+  <si>
+    <t>-Ms8n_AUf-bP8X-7UbxK</t>
+  </si>
+  <si>
+    <t>-Ms8nfAN8L8fAP9GvnyA</t>
+  </si>
+  <si>
+    <t>-Ms8niB11fzYXTylAUkb</t>
+  </si>
+  <si>
+    <t>-Ms8nj_mkQ1AtI-f3cZ7</t>
+  </si>
+  <si>
+    <t>-Ms8nmKCLIQQhX--F7nM</t>
+  </si>
+  <si>
+    <t>-Ms8nv4MU9VcrqE-_rE1</t>
+  </si>
+  <si>
+    <t>-Ms8o1OwXQ66z_i-AtA7</t>
+  </si>
+  <si>
+    <t>-Ms8o3mA1iz_oY5gTdeX</t>
+  </si>
+  <si>
+    <t>-Ms8oAVSu-oM-TYWYDdv</t>
+  </si>
+  <si>
+    <t>-Ms8oDqvS579zxQfmZsF</t>
+  </si>
+  <si>
+    <t>-Ms8oMq6ksEOYI5AfPdy</t>
+  </si>
+  <si>
+    <t>-Ms8oOKNj49OQLNXzvFI</t>
+  </si>
+  <si>
+    <t>-Ms8o_mPrOctk0s5Rqhp</t>
+  </si>
+  <si>
     <t>-Ms8ojaQsbw1zysdsJfS</t>
   </si>
   <si>
@@ -220,24 +535,495 @@
     <t>-Ms8otv3PAFnC1UPeWVa</t>
   </si>
   <si>
+    <t>-Ms8ovB4Pk4rtl9r_Oi4</t>
+  </si>
+  <si>
     <t>-Ms8oxUk87f77eQm0wTs</t>
   </si>
   <si>
+    <t>-Ms8pCIyvhKsBohLBrh6</t>
+  </si>
+  <si>
     <t>-Ms8pQGdSYCdyRKbQ58q</t>
   </si>
   <si>
+    <t>-Ms8pQs_4gZyajlG40rc</t>
+  </si>
+  <si>
     <t>-Ms8pdW6_h6hx5jSb1s5</t>
   </si>
   <si>
+    <t>-Ms8pdc-dloVnRBi1rPy</t>
+  </si>
+  <si>
     <t>-Ms8peUuew_UZc-fS4uZ</t>
   </si>
   <si>
+    <t>-Ms8pngeK6CiTTT9Vq9J</t>
+  </si>
+  <si>
+    <t>-Ms8q5_29bo76QWE33p9</t>
+  </si>
+  <si>
     <t>-Ms8qGZXU4X9oy5hRUDy</t>
   </si>
   <si>
+    <t>-Ms8qLHGiInVWPwccbal</t>
+  </si>
+  <si>
+    <t>-Ms8rkNULqYeV9AiiQIF</t>
+  </si>
+  <si>
+    <t>-Ms8rz33irce1RDqtiSq</t>
+  </si>
+  <si>
+    <t>-Ms8sDD0FlxqAMfr0S0h</t>
+  </si>
+  <si>
+    <t>-Ms8sQgp797GTmwgAVpN</t>
+  </si>
+  <si>
+    <t>-Ms8t3zeWxdjyhPmgRQK</t>
+  </si>
+  <si>
+    <t>-Ms8tX9FmoaOUVYNXm_-</t>
+  </si>
+  <si>
+    <t>-Ms8u0p2-ijRe1K0ynWA</t>
+  </si>
+  <si>
+    <t>-Ms8uDJZib5kbEeklijq</t>
+  </si>
+  <si>
+    <t>-Ms8uU_zESsphC-m3xXl</t>
+  </si>
+  <si>
+    <t>-Ms8uiHVI4_ekOZ6Jqbw</t>
+  </si>
+  <si>
+    <t>-Ms8ujgdQuTqRM-mTu5Q</t>
+  </si>
+  <si>
+    <t>-Ms8v1bXT_DFcK-6tTaw</t>
+  </si>
+  <si>
+    <t>-Ms8vEU30bZInX-KeANl</t>
+  </si>
+  <si>
+    <t>-Ms8vQNAFX1pAW13DQTN</t>
+  </si>
+  <si>
+    <t>-Ms8vc8oqUmdhmSFSupN</t>
+  </si>
+  <si>
+    <t>-Ms8vjcQ7UNH4MX28R75</t>
+  </si>
+  <si>
+    <t>-Ms8vxRP8LE6BBJHi5IW</t>
+  </si>
+  <si>
+    <t>-Ms8w4qDoo6rTUicgMh9</t>
+  </si>
+  <si>
+    <t>-Ms8wMNjwUvKNKKBdhMZ</t>
+  </si>
+  <si>
+    <t>-Ms8wdfi_AHRfMavDozX</t>
+  </si>
+  <si>
+    <t>-Ms8yOdJ_uqmQwTur4dU</t>
+  </si>
+  <si>
+    <t>-Ms8ycpJ_XMkhBsmof1z</t>
+  </si>
+  <si>
+    <t>-Ms8yqCEZ_bTC4cYxXgi</t>
+  </si>
+  <si>
+    <t>-Ms8zGLaJT_jVdeJnmUO</t>
+  </si>
+  <si>
     <t>-Ms99IDhbSnEbmxXBhYR</t>
   </si>
   <si>
+    <t>-MsauRljHAjxxD9HBaGp</t>
+  </si>
+  <si>
+    <t>-MsauSB5JVOX4oxUR5j_</t>
+  </si>
+  <si>
+    <t>-MsauSVrS-lOK0f3lQHR</t>
+  </si>
+  <si>
+    <t>-MsauXxcJ_MSgqpl76-X</t>
+  </si>
+  <si>
+    <t>-MsauYlnUk5jaoJFNWxb</t>
+  </si>
+  <si>
+    <t>-Msauj4egD4t92hYw7SQ</t>
+  </si>
+  <si>
+    <t>-MsaumSVz74bKgQ2nLDX</t>
+  </si>
+  <si>
+    <t>-MsautExMivVysgpdeV6</t>
+  </si>
+  <si>
+    <t>-Msav5Gu7uoYG8qRYvrm</t>
+  </si>
+  <si>
+    <t>-Msav7YY2AsVBkhu2K9K</t>
+  </si>
+  <si>
+    <t>-Msav92eeRih_1c_MsCU</t>
+  </si>
+  <si>
+    <t>-MsavWinjz9fbbAe6u7h</t>
+  </si>
+  <si>
+    <t>-MsavXNep-xekmfzy2rY</t>
+  </si>
+  <si>
+    <t>-Msavm6ystgM46SfQHKZ</t>
+  </si>
+  <si>
+    <t>-MsavnJS1FX1Mwj-wTGY</t>
+  </si>
+  <si>
+    <t>-Msaw4PMT4vB5qvedf2u</t>
+  </si>
+  <si>
+    <t>-Msawzy8q27DKBaAy5Vl</t>
+  </si>
+  <si>
+    <t>-Msax5DgM74-HdTd_EBD</t>
+  </si>
+  <si>
+    <t>-MsaxGuiWAvXMjM96GKs</t>
+  </si>
+  <si>
+    <t>-MsaxMbZvjDJYezucubT</t>
+  </si>
+  <si>
+    <t>-MsaxZdUmdK1fBdv86cx</t>
+  </si>
+  <si>
+    <t>-MsaxqLu287O3dtnbM7Q</t>
+  </si>
+  <si>
+    <t>-Msay-pTxeEaDx221XW-</t>
+  </si>
+  <si>
+    <t>-Msay0NZ0vlI6xVcl9DT</t>
+  </si>
+  <si>
+    <t>-MsayNxS_IoTWfupbHOq</t>
+  </si>
+  <si>
+    <t>-MsayTDCHoqHpzP5tcEo</t>
+  </si>
+  <si>
+    <t>-MsayiPdrBZistZyZbJy</t>
+  </si>
+  <si>
+    <t>-MsazFgHPnh_cNyRY10M</t>
+  </si>
+  <si>
+    <t>-MsazlrltvCTyCk0K32H</t>
+  </si>
+  <si>
+    <t>-MsaznEcb1Lh3Ct_DsRP</t>
+  </si>
+  <si>
+    <t>-MsazqnPNIMKg8FfEDtv</t>
+  </si>
+  <si>
+    <t>-Msb-2fsb6jwSQjhTpy3</t>
+  </si>
+  <si>
+    <t>-Msb-4xbLTddwYTIgISo</t>
+  </si>
+  <si>
+    <t>-Msb-L92R13oYas--wKR</t>
+  </si>
+  <si>
+    <t>-Msb-aPvCkGdFr1E1OPO</t>
+  </si>
+  <si>
+    <t>-Msb-o90jaBoGZ6XVW3n</t>
+  </si>
+  <si>
+    <t>-Msb-xToUBoT5GD6g-ft</t>
+  </si>
+  <si>
+    <t>-Msb0BLu4Z1_x9U9gTxp</t>
+  </si>
+  <si>
+    <t>-Msb0DgDkH9M9eppyXrJ</t>
+  </si>
+  <si>
+    <t>-Msb0iDHcGBNmHVrAzjy</t>
+  </si>
+  <si>
+    <t>-Msb0ja25jE1cXZcl6Ju</t>
+  </si>
+  <si>
+    <t>-Msb1PB7r0x9s-kTPb11</t>
+  </si>
+  <si>
+    <t>-Msb2j-y3axUl3Ds1ISq</t>
+  </si>
+  <si>
+    <t>-Msb2wTKCIJ1NYc9ixER</t>
+  </si>
+  <si>
+    <t>-Msb31WJWOACZ4ZnLaS1</t>
+  </si>
+  <si>
+    <t>-Msb32xz0VtKKGojjkjC</t>
+  </si>
+  <si>
+    <t>-Msb3DKcSLU4CJi4z0-m</t>
+  </si>
+  <si>
+    <t>-Msb3DXFk8lH-PwqNMws</t>
+  </si>
+  <si>
+    <t>-Msb3VKx0RqHRHtCaVD3</t>
+  </si>
+  <si>
+    <t>-Msb3sBq5RePVF3y0hX1</t>
+  </si>
+  <si>
+    <t>-Msb42kwp1loMerL0QGU</t>
+  </si>
+  <si>
+    <t>-Msb4Sb2n3KjqcGZdsk3</t>
+  </si>
+  <si>
+    <t>-Msb4oshaphoRkhPvqLx</t>
+  </si>
+  <si>
+    <t>-Msb58dQwhQRILmymsEU</t>
+  </si>
+  <si>
+    <t>-Msb5BVIackjn9jAb0dT</t>
+  </si>
+  <si>
+    <t>-Msb5GqKZ21QQyM4WUtS</t>
+  </si>
+  <si>
+    <t>-Msb5SRNHQ1UZ2-y7OnD</t>
+  </si>
+  <si>
+    <t>-Msb6cq4eGzwgJ23nf2O</t>
+  </si>
+  <si>
+    <t>-Msb7WzJ887rzoT7_7e7</t>
+  </si>
+  <si>
+    <t>-Msb7l3QZM5I8lVi1x3R</t>
+  </si>
+  <si>
+    <t>-Msb7wxtqQ-yWj234n0u</t>
+  </si>
+  <si>
+    <t>-Msb8LlcBKCtoN3oK8Q5</t>
+  </si>
+  <si>
+    <t>-MsbA1Bu0AZJ9XVXFR8t</t>
+  </si>
+  <si>
+    <t>-MsbA8e8C-IXHk5egz98</t>
+  </si>
+  <si>
+    <t>-MsbAHOOcg4X5elN182l</t>
+  </si>
+  <si>
+    <t>-MsbAZnNrZtcA4UoSiVy</t>
+  </si>
+  <si>
+    <t>-MsbBLHvi-k25IRccrEP</t>
+  </si>
+  <si>
+    <t>-MsbCUI3PzOKfwQ3iHvh</t>
+  </si>
+  <si>
+    <t>-MsbDBeL6lFe4MTPvWeP</t>
+  </si>
+  <si>
+    <t>-MsbDSEgAAfpo1uX2y_6</t>
+  </si>
+  <si>
+    <t>-MsbDl7aVZm1WDu3RIPQ</t>
+  </si>
+  <si>
+    <t>-MsbEaNZSdW1ET0FpDE_</t>
+  </si>
+  <si>
+    <t>-MsbEyzakmLPk01HhGa_</t>
+  </si>
+  <si>
+    <t>-MsbFuXMzh3nXOFwEzLa</t>
+  </si>
+  <si>
+    <t>-MsbHabZdFgXL8M8umJN</t>
+  </si>
+  <si>
+    <t>-MsbLMgqs0rygJQtF1LO</t>
+  </si>
+  <si>
+    <t>-MsbM21CSblxiZUpLCQy</t>
+  </si>
+  <si>
+    <t>-MsbPUEJ98yqGN_ECLR0</t>
+  </si>
+  <si>
+    <t>-MsbQNOnsHu4ElHfOcvK</t>
+  </si>
+  <si>
+    <t>-Msbfz_Q3OpvgTN3aTi6</t>
+  </si>
+  <si>
+    <t>-MsbznijEfAfFmgEmkal</t>
+  </si>
+  <si>
+    <t>-MsgAEXLOtXEqqfH0KlM</t>
+  </si>
+  <si>
+    <t>-MsgAEwyjEh-yzk912c2</t>
+  </si>
+  <si>
+    <t>-MsgAH0pCTKe8xGd0x_B</t>
+  </si>
+  <si>
+    <t>-MsgAKvzI2Wv-QH2Hq-A</t>
+  </si>
+  <si>
+    <t>-MsgAMUwYTMpZpjoNQZR</t>
+  </si>
+  <si>
+    <t>-MsgAMsSDTPlFVPxbs5i</t>
+  </si>
+  <si>
+    <t>-MsgAN8ESX7sswo3BiV6</t>
+  </si>
+  <si>
+    <t>-MsgAR-B-cfas1jvtwt1</t>
+  </si>
+  <si>
+    <t>-MsgARTOtxuKWMV5UCkN</t>
+  </si>
+  <si>
+    <t>-MsgAa4BL3iCU2p9MDTd</t>
+  </si>
+  <si>
+    <t>-MsgAc30GCmnZmodKdaB</t>
+  </si>
+  <si>
+    <t>-MsgAonf24h9XmmIx3X-</t>
+  </si>
+  <si>
+    <t>-MsgAopGufwjZuksS2gR</t>
+  </si>
+  <si>
+    <t>-MsgB15MKwup98930kn0</t>
+  </si>
+  <si>
+    <t>-MsgBZUf81IybTrLIU8v</t>
+  </si>
+  <si>
+    <t>-MsgBxLiKur3rdNKHkRw</t>
+  </si>
+  <si>
+    <t>-MsgC3PuKJ0cgfG0tMYL</t>
+  </si>
+  <si>
+    <t>-MsgCvFl3k8vmQrzZQ78</t>
+  </si>
+  <si>
+    <t>-MsgDkUiq826xuh_NjhG</t>
+  </si>
+  <si>
+    <t>-MsgERxea3QFryTagjrK</t>
+  </si>
+  <si>
+    <t>-MsgFah89r9WcpFvu3li</t>
+  </si>
+  <si>
+    <t>-MsgGcYafVurq46yccG7</t>
+  </si>
+  <si>
+    <t>-MsgGfgX3yHhGKusrl7u</t>
+  </si>
+  <si>
+    <t>-MsgI6iToDalQih0fhpY</t>
+  </si>
+  <si>
+    <t>-MsgIi2-CV-aGAgSzFDQ</t>
+  </si>
+  <si>
+    <t>-MsgIqPSYuSoci00Ga1z</t>
+  </si>
+  <si>
+    <t>-MsgJMVclgNRJGTxJDiC</t>
+  </si>
+  <si>
+    <t>-MsgJhers6htnOgB79hc</t>
+  </si>
+  <si>
+    <t>-MsgKMiTTLIetkOYWAoP</t>
+  </si>
+  <si>
+    <t>-MsgKZvyxow995Iu-PDF</t>
+  </si>
+  <si>
+    <t>-MsgOZlcTOXpIdPf64x9</t>
+  </si>
+  <si>
+    <t>-MsgPGDdb3H4UITMdJ54</t>
+  </si>
+  <si>
+    <t>-MsgROJh-nERvQ7b1p8n</t>
+  </si>
+  <si>
+    <t>-MsgRr7TK7GcFg7htlpg</t>
+  </si>
+  <si>
+    <t>-MsgRyn2tztlDQxPnY8l</t>
+  </si>
+  <si>
+    <t>-MsgSAoBZFjUQTC7u015</t>
+  </si>
+  <si>
+    <t>-MsgSZycR7KyAZ4DYZN1</t>
+  </si>
+  <si>
+    <t>-MsgSsb35GZVUR3MuU2F</t>
+  </si>
+  <si>
+    <t>-MsgVH_r6lQ_nc5tIsCJ</t>
+  </si>
+  <si>
+    <t>-Msg_BkQkEt-eUzXVfSt</t>
+  </si>
+  <si>
+    <t>-MsgaG9NB59MSFmWLkKV</t>
+  </si>
+  <si>
+    <t>-MsgbAJzGfW2r79QD_TQ</t>
+  </si>
+  <si>
+    <t>-MsgiNYkpq3-jiVXAeCi</t>
+  </si>
+  <si>
+    <t>-MsgjIKhnxLbvtFgY4PR</t>
+  </si>
+  <si>
+    <t>-Msgkodugfx49ojmJEaA</t>
+  </si>
+  <si>
     <t>TSP</t>
   </si>
   <si>
@@ -251,6 +1037,12 @@
   </si>
   <si>
     <t>closest</t>
+  </si>
+  <si>
+    <t>sarl ddqn distribution</t>
+  </si>
+  <si>
+    <t>ddqn distribution</t>
   </si>
 </sst>
 </file>
@@ -608,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +1440,7 @@
         <v>1.2</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -668,7 +1460,7 @@
         <v>0.9</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -688,7 +1480,7 @@
         <v>0.5</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -708,7 +1500,7 @@
         <v>0.78</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -728,7 +1520,7 @@
         <v>0.48</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -748,7 +1540,7 @@
         <v>0.1</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -768,7 +1560,7 @@
         <v>0.05</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -788,7 +1580,7 @@
         <v>0.9</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -808,7 +1600,7 @@
         <v>0.1</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -828,7 +1620,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -848,7 +1640,7 @@
         <v>-0.32</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -868,7 +1660,7 @@
         <v>-1.3</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -888,7 +1680,7 @@
         <v>0.9</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -908,7 +1700,7 @@
         <v>-1.2</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -928,7 +1720,7 @@
         <v>0.8</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -948,7 +1740,7 @@
         <v>0.9</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -968,7 +1760,7 @@
         <v>0.85</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -988,7 +1780,7 @@
         <v>0.9</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1008,7 +1800,7 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1028,7 +1820,7 @@
         <v>0.45</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1048,7 +1840,7 @@
         <v>0.9</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1068,7 +1860,7 @@
         <v>0.55</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1088,7 +1880,7 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1108,7 +1900,7 @@
         <v>0.9</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1128,7 +1920,7 @@
         <v>0.9</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1148,7 +1940,7 @@
         <v>0.6</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1168,7 +1960,7 @@
         <v>0.87</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1188,7 +1980,7 @@
         <v>0.9</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1208,7 +2000,7 @@
         <v>-0.04</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1228,7 +2020,7 @@
         <v>0.8</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1236,19 +2028,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.39</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C32">
-        <v>-0.8</v>
+        <v>0.65</v>
       </c>
       <c r="D32">
-        <v>-0.34</v>
+        <v>0.91</v>
       </c>
       <c r="E32">
-        <v>-0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1256,19 +2048,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.38</v>
+        <v>-0.39</v>
       </c>
       <c r="C33">
-        <v>-0.95</v>
+        <v>-0.8</v>
       </c>
       <c r="D33">
-        <v>-0.38</v>
+        <v>-0.34</v>
       </c>
       <c r="E33">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1276,19 +2068,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.5599999999999999</v>
+        <v>-0.38</v>
       </c>
       <c r="C34">
-        <v>-0.06</v>
+        <v>-0.95</v>
       </c>
       <c r="D34">
-        <v>0.71</v>
+        <v>-0.38</v>
       </c>
       <c r="E34">
-        <v>0.04</v>
+        <v>-0.7</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1296,19 +2088,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>1.15</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="C35">
-        <v>-0.2</v>
+        <v>-0.06</v>
       </c>
       <c r="D35">
-        <v>1.15</v>
+        <v>0.71</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1316,19 +2108,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.6</v>
+        <v>1.15</v>
       </c>
       <c r="C36">
-        <v>0.5499999999999999</v>
+        <v>-0.2</v>
       </c>
       <c r="D36">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="E36">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1336,19 +2128,19 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.35</v>
+        <v>-0.5900000000000001</v>
       </c>
       <c r="C37">
-        <v>0.35</v>
+        <v>-0.51</v>
       </c>
       <c r="D37">
-        <v>0.45</v>
+        <v>-0.54</v>
       </c>
       <c r="E37">
-        <v>0.5</v>
+        <v>-0.31</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1356,19 +2148,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.04999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C38">
-        <v>0.89</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="D38">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E38">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1376,19 +2168,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C39">
-        <v>-1.22</v>
+        <v>0.35</v>
       </c>
       <c r="D39">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="E39">
-        <v>-1.12</v>
+        <v>0.5</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1396,19 +2188,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>1.09</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="C40">
-        <v>-0.55</v>
+        <v>0.89</v>
       </c>
       <c r="D40">
-        <v>1.09</v>
+        <v>0.3</v>
       </c>
       <c r="E40">
-        <v>-0.3</v>
+        <v>0.89</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1416,19 +2208,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.8100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C41">
-        <v>0.65</v>
+        <v>-1.22</v>
       </c>
       <c r="D41">
-        <v>0.91</v>
+        <v>0.4</v>
       </c>
       <c r="E41">
-        <v>0.8</v>
+        <v>-1.12</v>
       </c>
       <c r="F41" t="s">
-        <v>77</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1436,19 +2228,19 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.73</v>
+        <v>1.09</v>
       </c>
       <c r="C42">
-        <v>0.65</v>
+        <v>-0.55</v>
       </c>
       <c r="D42">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="E42">
-        <v>0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1456,19 +2248,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>1.15</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C43">
-        <v>-0.2</v>
+        <v>0.65</v>
       </c>
       <c r="D43">
-        <v>1.15</v>
+        <v>0.91</v>
       </c>
       <c r="E43">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="F43" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1476,19 +2268,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.21</v>
+        <v>0.73</v>
       </c>
       <c r="C44">
-        <v>-0.15</v>
+        <v>0.65</v>
       </c>
       <c r="D44">
-        <v>0.21</v>
+        <v>0.83</v>
       </c>
       <c r="E44">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1496,19 +2288,19 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>-0.37</v>
+        <v>1.17</v>
       </c>
       <c r="C45">
-        <v>-0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="D45">
-        <v>-0.32</v>
+        <v>1.17</v>
       </c>
       <c r="E45">
-        <v>-0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F45" t="s">
-        <v>76</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1516,19 +2308,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="C46">
-        <v>0.75</v>
+        <v>-0.2</v>
       </c>
       <c r="D46">
-        <v>0.85</v>
+        <v>1.15</v>
       </c>
       <c r="E46">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1536,19 +2328,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>1.06</v>
+        <v>0.21</v>
       </c>
       <c r="C47">
-        <v>-0.61</v>
+        <v>-0.15</v>
       </c>
       <c r="D47">
-        <v>1.06</v>
+        <v>0.21</v>
       </c>
       <c r="E47">
-        <v>-0.36</v>
+        <v>0.1</v>
       </c>
       <c r="F47" t="s">
-        <v>75</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1556,19 +2348,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>1.03</v>
+        <v>-0.37</v>
       </c>
       <c r="C48">
-        <v>-0.8</v>
+        <v>-0.25</v>
       </c>
       <c r="D48">
-        <v>1.03</v>
+        <v>-0.32</v>
       </c>
       <c r="E48">
-        <v>-0.55</v>
+        <v>-0.05</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1576,19 +2368,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.85</v>
+        <v>-0.48</v>
       </c>
       <c r="C49">
-        <v>0.85</v>
+        <v>-0.32</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>-0.48</v>
       </c>
       <c r="E49">
-        <v>0.95</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1596,19 +2388,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>1.09</v>
+        <v>0.75</v>
       </c>
       <c r="C50">
-        <v>-0.4</v>
+        <v>0.75</v>
       </c>
       <c r="D50">
-        <v>1.09</v>
+        <v>0.85</v>
       </c>
       <c r="E50">
-        <v>-0.15</v>
+        <v>0.9</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1616,19 +2408,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.25</v>
+        <v>1.06</v>
       </c>
       <c r="C51">
-        <v>1.15</v>
+        <v>-0.61</v>
       </c>
       <c r="D51">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="E51">
-        <v>1.15</v>
+        <v>-0.36</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1636,19 +2428,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>1.07</v>
+        <v>0.4</v>
       </c>
       <c r="C52">
-        <v>-0.65</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="D52">
-        <v>1.07</v>
+        <v>0.5</v>
       </c>
       <c r="E52">
-        <v>-0.4</v>
+        <v>0.82</v>
       </c>
       <c r="F52" t="s">
-        <v>75</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1656,19 +2448,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="C53">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="D53">
-        <v>0.85</v>
+        <v>0.1</v>
       </c>
       <c r="E53">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1676,19 +2468,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.1</v>
+        <v>1.03</v>
       </c>
       <c r="C54">
-        <v>-0.1</v>
+        <v>-0.8</v>
       </c>
       <c r="D54">
-        <v>-0</v>
+        <v>1.03</v>
       </c>
       <c r="E54">
-        <v>0.05</v>
+        <v>-0.55</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1696,19 +2488,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.8300000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="C55">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="D55">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1716,19 +2508,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="C56">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="D56">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="E56">
-        <v>0.15</v>
+        <v>-0.15</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1736,19 +2528,19 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.73</v>
+        <v>-0.52</v>
       </c>
       <c r="C57">
-        <v>0.65</v>
+        <v>-0.4</v>
       </c>
       <c r="D57">
-        <v>0.88</v>
+        <v>-0.52</v>
       </c>
       <c r="E57">
-        <v>0.75</v>
+        <v>-0.15</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1756,19 +2548,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>1.05</v>
+        <v>-0.4</v>
       </c>
       <c r="C58">
-        <v>-0.6</v>
+        <v>-0.32</v>
       </c>
       <c r="D58">
-        <v>1.05</v>
+        <v>-0.4</v>
       </c>
       <c r="E58">
-        <v>-0.35</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1776,19 +2568,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="C59">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="D59">
-        <v>0.85</v>
+        <v>-0</v>
       </c>
       <c r="E59">
-        <v>0.9</v>
+        <v>1.15</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1796,19 +2588,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.72</v>
+        <v>1.07</v>
       </c>
       <c r="C60">
-        <v>0.6</v>
+        <v>-0.65</v>
       </c>
       <c r="D60">
-        <v>0.82</v>
+        <v>1.07</v>
       </c>
       <c r="E60">
-        <v>0.75</v>
+        <v>-0.4</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1816,19 +2608,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>1.15</v>
+        <v>0.4500000000000001</v>
       </c>
       <c r="C61">
-        <v>-0.2</v>
+        <v>0.73</v>
       </c>
       <c r="D61">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="E61">
-        <v>0.05</v>
+        <v>0.88</v>
       </c>
       <c r="F61" t="s">
-        <v>75</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1836,19 +2628,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.09</v>
+        <v>0.75</v>
       </c>
       <c r="C62">
-        <v>-0.35</v>
+        <v>0.75</v>
       </c>
       <c r="D62">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="E62">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1856,19 +2648,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.15</v>
+        <v>0.65</v>
       </c>
       <c r="C63">
-        <v>0.1</v>
+        <v>0.77</v>
       </c>
       <c r="D63">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="E63">
-        <v>0.2</v>
+        <v>0.97</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1876,19 +2668,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="C64">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="D64">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="E64">
-        <v>-0</v>
+        <v>-0.05</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1896,19 +2688,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="C65">
-        <v>-0.1</v>
+        <v>0.87</v>
       </c>
       <c r="D65">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="E65">
-        <v>0.05</v>
+        <v>1.02</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1916,19 +2708,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.91</v>
+        <v>0.35</v>
       </c>
       <c r="C66">
-        <v>-1.35</v>
+        <v>0.35</v>
       </c>
       <c r="D66">
-        <v>0.91</v>
+        <v>0.4</v>
       </c>
       <c r="E66">
-        <v>-1.1</v>
+        <v>0.55</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1936,19 +2728,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.15</v>
+        <v>-0.3</v>
       </c>
       <c r="C67">
-        <v>0.15</v>
+        <v>-0.27</v>
       </c>
       <c r="D67">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="E67">
-        <v>0.25</v>
+        <v>-0.02</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1956,19 +2748,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.15</v>
+        <v>0.5</v>
       </c>
       <c r="C68">
-        <v>1.17</v>
+        <v>0.35</v>
       </c>
       <c r="D68">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
       <c r="E68">
-        <v>1.17</v>
+        <v>0.55</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1976,19 +2768,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04999999999999999</v>
+        <v>-0.1</v>
       </c>
       <c r="C69">
+        <v>-0.1</v>
+      </c>
+      <c r="D69">
+        <v>-0</v>
+      </c>
+      <c r="E69">
         <v>0.05</v>
       </c>
-      <c r="D69">
-        <v>0.25</v>
-      </c>
-      <c r="E69">
-        <v>0.1</v>
-      </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1996,19 +2788,5259 @@
         <v>73</v>
       </c>
       <c r="B70">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C70">
+        <v>0.75</v>
+      </c>
+      <c r="D70">
+        <v>0.93</v>
+      </c>
+      <c r="E70">
+        <v>0.9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>0.12</v>
+      </c>
+      <c r="C71">
+        <v>0.11</v>
+      </c>
+      <c r="D71">
+        <v>0.17</v>
+      </c>
+      <c r="E71">
+        <v>0.31</v>
+      </c>
+      <c r="F71" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>1.17</v>
+      </c>
+      <c r="C72">
+        <v>-0.1</v>
+      </c>
+      <c r="D72">
+        <v>1.17</v>
+      </c>
+      <c r="E72">
+        <v>0.15</v>
+      </c>
+      <c r="F72" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>0.65</v>
+      </c>
+      <c r="C73">
+        <v>0.65</v>
+      </c>
+      <c r="D73">
+        <v>0.75</v>
+      </c>
+      <c r="E73">
+        <v>0.8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>0.73</v>
+      </c>
+      <c r="C74">
+        <v>0.65</v>
+      </c>
+      <c r="D74">
+        <v>0.88</v>
+      </c>
+      <c r="E74">
+        <v>0.75</v>
+      </c>
+      <c r="F74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C75">
+        <v>0.75</v>
+      </c>
+      <c r="D75">
+        <v>0.91</v>
+      </c>
+      <c r="E75">
+        <v>0.9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>-0.2</v>
+      </c>
+      <c r="C76">
+        <v>-0.3</v>
+      </c>
+      <c r="D76">
+        <v>-0.2</v>
+      </c>
+      <c r="E76">
+        <v>-0.05</v>
+      </c>
+      <c r="F76" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>0.65</v>
+      </c>
+      <c r="C77">
+        <v>0.7</v>
+      </c>
+      <c r="D77">
+        <v>0.75</v>
+      </c>
+      <c r="E77">
+        <v>0.85</v>
+      </c>
+      <c r="F77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>0.25</v>
+      </c>
+      <c r="C78">
+        <v>0.3</v>
+      </c>
+      <c r="D78">
+        <v>0.3</v>
+      </c>
+      <c r="E78">
+        <v>0.5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>1.05</v>
+      </c>
+      <c r="C79">
+        <v>-0.6</v>
+      </c>
+      <c r="D79">
+        <v>1.05</v>
+      </c>
+      <c r="E79">
+        <v>-0.35</v>
+      </c>
+      <c r="F79" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>1.09</v>
+      </c>
+      <c r="C80">
+        <v>-0.45</v>
+      </c>
+      <c r="D80">
+        <v>1.09</v>
+      </c>
+      <c r="E80">
+        <v>-0.2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>0.35</v>
+      </c>
+      <c r="C81">
+        <v>0.35</v>
+      </c>
+      <c r="D81">
+        <v>0.5</v>
+      </c>
+      <c r="E81">
+        <v>0.45</v>
+      </c>
+      <c r="F81" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>0.31</v>
+      </c>
+      <c r="C82">
+        <v>-0.35</v>
+      </c>
+      <c r="D82">
+        <v>0.36</v>
+      </c>
+      <c r="E82">
+        <v>-0.15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>0.75</v>
+      </c>
+      <c r="C83">
+        <v>0.75</v>
+      </c>
+      <c r="D83">
+        <v>0.85</v>
+      </c>
+      <c r="E83">
+        <v>0.9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>0.6</v>
+      </c>
+      <c r="C84">
+        <v>0.55</v>
+      </c>
+      <c r="D84">
+        <v>0.75</v>
+      </c>
+      <c r="E84">
+        <v>0.65</v>
+      </c>
+      <c r="F84" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>-0.15</v>
+      </c>
+      <c r="C85">
+        <v>-0.05</v>
+      </c>
+      <c r="D85">
+        <v>0.05</v>
+      </c>
+      <c r="E85">
+        <v>0.05</v>
+      </c>
+      <c r="F85" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C86">
+        <v>0.75</v>
+      </c>
+      <c r="D86">
+        <v>0.93</v>
+      </c>
+      <c r="E86">
+        <v>0.9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>1.13</v>
+      </c>
+      <c r="C87">
+        <v>-0.35</v>
+      </c>
+      <c r="D87">
+        <v>1.13</v>
+      </c>
+      <c r="E87">
+        <v>-0.1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C88">
+        <v>0.7</v>
+      </c>
+      <c r="D88">
+        <v>0.8</v>
+      </c>
+      <c r="E88">
+        <v>0.85</v>
+      </c>
+      <c r="F88" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>0.65</v>
+      </c>
+      <c r="C89">
+        <v>0.79</v>
+      </c>
+      <c r="D89">
+        <v>0.75</v>
+      </c>
+      <c r="E89">
+        <v>0.99</v>
+      </c>
+      <c r="F89" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>1.13</v>
+      </c>
+      <c r="C90">
+        <v>-0.35</v>
+      </c>
+      <c r="D90">
+        <v>1.13</v>
+      </c>
+      <c r="E90">
+        <v>-0.1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C91">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="D91">
+        <v>0.93</v>
+      </c>
+      <c r="E91">
+        <v>0.95</v>
+      </c>
+      <c r="F91" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C92">
+        <v>0.65</v>
+      </c>
+      <c r="D92">
+        <v>0.91</v>
+      </c>
+      <c r="E92">
+        <v>0.8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>0.75</v>
+      </c>
+      <c r="C93">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="D93">
+        <v>0.85</v>
+      </c>
+      <c r="E93">
+        <v>0.95</v>
+      </c>
+      <c r="F93" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>0.75</v>
+      </c>
+      <c r="C94">
+        <v>0.83</v>
+      </c>
+      <c r="D94">
+        <v>0.85</v>
+      </c>
+      <c r="E94">
+        <v>0.98</v>
+      </c>
+      <c r="F94" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>1.11</v>
+      </c>
+      <c r="C95">
+        <v>-0.2</v>
+      </c>
+      <c r="D95">
+        <v>1.11</v>
+      </c>
+      <c r="E95">
+        <v>0.05</v>
+      </c>
+      <c r="F95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>0.12</v>
+      </c>
+      <c r="C96">
+        <v>-0.35</v>
+      </c>
+      <c r="D96">
+        <v>0.12</v>
+      </c>
+      <c r="E96">
+        <v>-0.1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>1.15</v>
+      </c>
+      <c r="C97">
+        <v>-0.2</v>
+      </c>
+      <c r="D97">
+        <v>1.15</v>
+      </c>
+      <c r="E97">
+        <v>0.05</v>
+      </c>
+      <c r="F97" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="C98">
+        <v>0.7</v>
+      </c>
+      <c r="D98">
+        <v>0.92</v>
+      </c>
+      <c r="E98">
+        <v>0.85</v>
+      </c>
+      <c r="F98" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>0.25</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>0.35</v>
+      </c>
+      <c r="E99">
         <v>0.4</v>
       </c>
-      <c r="C70">
+      <c r="F99" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>1.13</v>
+      </c>
+      <c r="C100">
+        <v>-0.2</v>
+      </c>
+      <c r="D100">
+        <v>1.13</v>
+      </c>
+      <c r="E100">
+        <v>0.05</v>
+      </c>
+      <c r="F100" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>0.8</v>
+      </c>
+      <c r="C101">
+        <v>0.75</v>
+      </c>
+      <c r="D101">
+        <v>0.9</v>
+      </c>
+      <c r="E101">
+        <v>0.9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>0.2</v>
+      </c>
+      <c r="C102">
+        <v>0.25</v>
+      </c>
+      <c r="D102">
+        <v>0.25</v>
+      </c>
+      <c r="E102">
+        <v>0.45</v>
+      </c>
+      <c r="F102" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C103">
+        <v>0.45</v>
+      </c>
+      <c r="D103">
+        <v>0.55</v>
+      </c>
+      <c r="E103">
+        <v>0.6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>0.75</v>
+      </c>
+      <c r="C104">
+        <v>0.75</v>
+      </c>
+      <c r="D104">
+        <v>0.85</v>
+      </c>
+      <c r="E104">
+        <v>0.9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C105">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="D105">
+        <v>0.55</v>
+      </c>
+      <c r="E105">
+        <v>0.83</v>
+      </c>
+      <c r="F105" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>0.75</v>
+      </c>
+      <c r="C106">
+        <v>0.75</v>
+      </c>
+      <c r="D106">
+        <v>0.85</v>
+      </c>
+      <c r="E106">
+        <v>0.9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>0.11</v>
+      </c>
+      <c r="C107">
+        <v>-0.25</v>
+      </c>
+      <c r="D107">
+        <v>0.11</v>
+      </c>
+      <c r="E107">
+        <v>-0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>-0.42</v>
+      </c>
+      <c r="C108">
+        <v>-0.42</v>
+      </c>
+      <c r="D108">
+        <v>-0.42</v>
+      </c>
+      <c r="E108">
+        <v>-0.17</v>
+      </c>
+      <c r="F108" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>0.72</v>
+      </c>
+      <c r="C109">
+        <v>0.6</v>
+      </c>
+      <c r="D109">
+        <v>0.82</v>
+      </c>
+      <c r="E109">
+        <v>0.75</v>
+      </c>
+      <c r="F109" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>0.25</v>
+      </c>
+      <c r="C110">
+        <v>0.15</v>
+      </c>
+      <c r="D110">
         <v>0.35</v>
       </c>
-      <c r="D70">
+      <c r="E110">
+        <v>0.3</v>
+      </c>
+      <c r="F110" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>-0.7</v>
+      </c>
+      <c r="C111">
+        <v>-0.91</v>
+      </c>
+      <c r="D111">
+        <v>-0.7</v>
+      </c>
+      <c r="E111">
+        <v>-0.66</v>
+      </c>
+      <c r="F111" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>-0.41</v>
+      </c>
+      <c r="C112">
+        <v>-0.47</v>
+      </c>
+      <c r="D112">
+        <v>-0.41</v>
+      </c>
+      <c r="E112">
+        <v>-0.22</v>
+      </c>
+      <c r="F112" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>0.29</v>
+      </c>
+      <c r="C113">
+        <v>-0.35</v>
+      </c>
+      <c r="D113">
+        <v>0.29</v>
+      </c>
+      <c r="E113">
+        <v>-0.1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>0.73</v>
+      </c>
+      <c r="C114">
+        <v>0.65</v>
+      </c>
+      <c r="D114">
+        <v>0.83</v>
+      </c>
+      <c r="E114">
+        <v>0.8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>-0.26</v>
+      </c>
+      <c r="C115">
+        <v>0.05999999999999997</v>
+      </c>
+      <c r="D115">
+        <v>-0.16</v>
+      </c>
+      <c r="E115">
+        <v>0.21</v>
+      </c>
+      <c r="F115" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>1.1</v>
+      </c>
+      <c r="C116">
+        <v>-0.31</v>
+      </c>
+      <c r="D116">
+        <v>1.1</v>
+      </c>
+      <c r="E116">
+        <v>-0.06</v>
+      </c>
+      <c r="F116" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
         <v>0.5</v>
       </c>
-      <c r="E70">
+      <c r="C117">
+        <v>0.45</v>
+      </c>
+      <c r="D117">
+        <v>0.55</v>
+      </c>
+      <c r="E117">
+        <v>0.65</v>
+      </c>
+      <c r="F117" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>-0.31</v>
+      </c>
+      <c r="C118">
+        <v>-0.35</v>
+      </c>
+      <c r="D118">
+        <v>-0.31</v>
+      </c>
+      <c r="E118">
+        <v>-0.1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>0.75</v>
+      </c>
+      <c r="C119">
+        <v>0.7</v>
+      </c>
+      <c r="D119">
+        <v>0.85</v>
+      </c>
+      <c r="E119">
+        <v>0.85</v>
+      </c>
+      <c r="F119" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C120">
+        <v>0.65</v>
+      </c>
+      <c r="D120">
+        <v>0.91</v>
+      </c>
+      <c r="E120">
+        <v>0.8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>0.25</v>
+      </c>
+      <c r="C121">
+        <v>0.15</v>
+      </c>
+      <c r="D121">
+        <v>0.35</v>
+      </c>
+      <c r="E121">
+        <v>0.3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="C122">
         <v>0.5</v>
       </c>
-      <c r="F70" t="s">
-        <v>74</v>
+      <c r="D122">
+        <v>0.83</v>
+      </c>
+      <c r="E122">
+        <v>0.6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C123">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D123">
+        <v>0.8</v>
+      </c>
+      <c r="E123">
+        <v>1.01</v>
+      </c>
+      <c r="F123" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>1.13</v>
+      </c>
+      <c r="C124">
+        <v>-0.35</v>
+      </c>
+      <c r="D124">
+        <v>1.13</v>
+      </c>
+      <c r="E124">
+        <v>-0.1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>1.15</v>
+      </c>
+      <c r="C125">
+        <v>-0.25</v>
+      </c>
+      <c r="D125">
+        <v>1.15</v>
+      </c>
+      <c r="E125">
+        <v>-0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>0.3</v>
+      </c>
+      <c r="C126">
+        <v>0.3</v>
+      </c>
+      <c r="D126">
+        <v>0.35</v>
+      </c>
+      <c r="E126">
+        <v>0.5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C127">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D127">
+        <v>0.8</v>
+      </c>
+      <c r="E127">
+        <v>1.01</v>
+      </c>
+      <c r="F127" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>-0.36</v>
+      </c>
+      <c r="C128">
+        <v>-0.29</v>
+      </c>
+      <c r="D128">
+        <v>-0.31</v>
+      </c>
+      <c r="E128">
+        <v>-0.09</v>
+      </c>
+      <c r="F128" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C129">
+        <v>0.65</v>
+      </c>
+      <c r="D129">
+        <v>0.91</v>
+      </c>
+      <c r="E129">
+        <v>0.8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C130">
+        <v>0.65</v>
+      </c>
+      <c r="D130">
+        <v>0.91</v>
+      </c>
+      <c r="E130">
+        <v>0.8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C131">
+        <v>0.65</v>
+      </c>
+      <c r="D131">
+        <v>0.91</v>
+      </c>
+      <c r="E131">
+        <v>0.8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="C132">
+        <v>0.7</v>
+      </c>
+      <c r="D132">
+        <v>1.07</v>
+      </c>
+      <c r="E132">
+        <v>0.85</v>
+      </c>
+      <c r="F132" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>0.4</v>
+      </c>
+      <c r="C133">
+        <v>0.4</v>
+      </c>
+      <c r="D133">
+        <v>0.5</v>
+      </c>
+      <c r="E133">
+        <v>0.55</v>
+      </c>
+      <c r="F133" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C134">
+        <v>0.75</v>
+      </c>
+      <c r="D134">
+        <v>0.93</v>
+      </c>
+      <c r="E134">
+        <v>0.9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C135">
+        <v>0.75</v>
+      </c>
+      <c r="D135">
+        <v>0.93</v>
+      </c>
+      <c r="E135">
+        <v>0.9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>0.65</v>
+      </c>
+      <c r="C136">
+        <v>0.65</v>
+      </c>
+      <c r="D136">
+        <v>0.8</v>
+      </c>
+      <c r="E136">
+        <v>0.75</v>
+      </c>
+      <c r="F136" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>0.13</v>
+      </c>
+      <c r="C137">
+        <v>-0.05000000000000002</v>
+      </c>
+      <c r="D137">
+        <v>0.23</v>
+      </c>
+      <c r="E137">
+        <v>0.1</v>
+      </c>
+      <c r="F137" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>-0.28</v>
+      </c>
+      <c r="C138">
+        <v>-0.28</v>
+      </c>
+      <c r="D138">
+        <v>-0.28</v>
+      </c>
+      <c r="E138">
+        <v>-0.03</v>
+      </c>
+      <c r="F138" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>0.8</v>
+      </c>
+      <c r="C139">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="D139">
+        <v>0.9</v>
+      </c>
+      <c r="E139">
+        <v>0.95</v>
+      </c>
+      <c r="F139" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>1.15</v>
+      </c>
+      <c r="C140">
+        <v>-0.15</v>
+      </c>
+      <c r="D140">
+        <v>1.15</v>
+      </c>
+      <c r="E140">
+        <v>0.1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>0.3</v>
+      </c>
+      <c r="C141">
+        <v>0.25</v>
+      </c>
+      <c r="D141">
+        <v>0.35</v>
+      </c>
+      <c r="E141">
+        <v>0.45</v>
+      </c>
+      <c r="F141" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>0.4</v>
+      </c>
+      <c r="C142">
+        <v>0.59</v>
+      </c>
+      <c r="D142">
+        <v>0.5</v>
+      </c>
+      <c r="E142">
+        <v>0.74</v>
+      </c>
+      <c r="F142" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143">
+        <v>0.75</v>
+      </c>
+      <c r="C143">
+        <v>0.75</v>
+      </c>
+      <c r="D143">
+        <v>0.85</v>
+      </c>
+      <c r="E143">
+        <v>0.9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="C144">
+        <v>0.55</v>
+      </c>
+      <c r="D144">
+        <v>0.7</v>
+      </c>
+      <c r="E144">
+        <v>0.65</v>
+      </c>
+      <c r="F144" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>0.12</v>
+      </c>
+      <c r="C145">
+        <v>0.12</v>
+      </c>
+      <c r="D145">
+        <v>0.17</v>
+      </c>
+      <c r="E145">
+        <v>0.32</v>
+      </c>
+      <c r="F145" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>0.6</v>
+      </c>
+      <c r="C146">
+        <v>0.8</v>
+      </c>
+      <c r="D146">
+        <v>0.7</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>1.17</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>1.17</v>
+      </c>
+      <c r="E147">
+        <v>0.25</v>
+      </c>
+      <c r="F147" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>0.75</v>
+      </c>
+      <c r="C148">
+        <v>0.75</v>
+      </c>
+      <c r="D148">
+        <v>0.85</v>
+      </c>
+      <c r="E148">
+        <v>0.9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>0.55</v>
+      </c>
+      <c r="C149">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D149">
+        <v>0.65</v>
+      </c>
+      <c r="E149">
+        <v>0.7</v>
+      </c>
+      <c r="F149" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>1.17</v>
+      </c>
+      <c r="C150">
+        <v>-0.15</v>
+      </c>
+      <c r="D150">
+        <v>1.17</v>
+      </c>
+      <c r="E150">
+        <v>0.1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>0.92</v>
+      </c>
+      <c r="C151">
+        <v>0.75</v>
+      </c>
+      <c r="D151">
+        <v>1.02</v>
+      </c>
+      <c r="E151">
+        <v>0.9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>1.15</v>
+      </c>
+      <c r="C152">
+        <v>-0.2</v>
+      </c>
+      <c r="D152">
+        <v>1.15</v>
+      </c>
+      <c r="E152">
+        <v>0.05</v>
+      </c>
+      <c r="F152" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="C153">
+        <v>0.75</v>
+      </c>
+      <c r="D153">
+        <v>1.09</v>
+      </c>
+      <c r="E153">
+        <v>0.9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C154">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="D154">
+        <v>0.8</v>
+      </c>
+      <c r="E154">
+        <v>1.02</v>
+      </c>
+      <c r="F154" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>0.12</v>
+      </c>
+      <c r="C155">
+        <v>-0.2</v>
+      </c>
+      <c r="D155">
+        <v>0.17</v>
+      </c>
+      <c r="E155">
+        <v>-0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>0.8</v>
+      </c>
+      <c r="C156">
+        <v>0.75</v>
+      </c>
+      <c r="D156">
+        <v>0.9</v>
+      </c>
+      <c r="E156">
+        <v>0.9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>0.75</v>
+      </c>
+      <c r="C157">
+        <v>0.83</v>
+      </c>
+      <c r="D157">
+        <v>0.85</v>
+      </c>
+      <c r="E157">
+        <v>0.98</v>
+      </c>
+      <c r="F157" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>0.75</v>
+      </c>
+      <c r="C158">
+        <v>0.75</v>
+      </c>
+      <c r="D158">
+        <v>0.85</v>
+      </c>
+      <c r="E158">
+        <v>0.9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>0.21</v>
+      </c>
+      <c r="C159">
+        <v>-0.25</v>
+      </c>
+      <c r="D159">
+        <v>0.26</v>
+      </c>
+      <c r="E159">
+        <v>-0.05</v>
+      </c>
+      <c r="F159" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>0.65</v>
+      </c>
+      <c r="C160">
+        <v>0.65</v>
+      </c>
+      <c r="D160">
+        <v>0.8</v>
+      </c>
+      <c r="E160">
+        <v>0.75</v>
+      </c>
+      <c r="F160" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>0.55</v>
+      </c>
+      <c r="C161">
+        <v>0.7</v>
+      </c>
+      <c r="D161">
+        <v>0.65</v>
+      </c>
+      <c r="E161">
+        <v>0.85</v>
+      </c>
+      <c r="F161" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162">
+        <v>0.65</v>
+      </c>
+      <c r="C162">
+        <v>0.65</v>
+      </c>
+      <c r="D162">
+        <v>0.75</v>
+      </c>
+      <c r="E162">
+        <v>0.8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163">
+        <v>0.08</v>
+      </c>
+      <c r="C163">
+        <v>-0.2</v>
+      </c>
+      <c r="D163">
+        <v>0.08</v>
+      </c>
+      <c r="E163">
+        <v>0.05</v>
+      </c>
+      <c r="F163" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>0.65</v>
+      </c>
+      <c r="C164">
+        <v>0.7</v>
+      </c>
+      <c r="D164">
+        <v>0.75</v>
+      </c>
+      <c r="E164">
+        <v>0.85</v>
+      </c>
+      <c r="F164" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165">
+        <v>-2.775557561562891e-17</v>
+      </c>
+      <c r="C165">
+        <v>-0.05000000000000002</v>
+      </c>
+      <c r="D165">
+        <v>0.15</v>
+      </c>
+      <c r="E165">
+        <v>0.15</v>
+      </c>
+      <c r="F165" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166">
+        <v>0.75</v>
+      </c>
+      <c r="C166">
+        <v>0.75</v>
+      </c>
+      <c r="D166">
+        <v>0.85</v>
+      </c>
+      <c r="E166">
+        <v>0.95</v>
+      </c>
+      <c r="F166" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167">
+        <v>0.09</v>
+      </c>
+      <c r="C167">
+        <v>-0.35</v>
+      </c>
+      <c r="D167">
+        <v>0.09</v>
+      </c>
+      <c r="E167">
+        <v>-0.1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168">
+        <v>0.15</v>
+      </c>
+      <c r="C168">
+        <v>0.1</v>
+      </c>
+      <c r="D168">
+        <v>0.3</v>
+      </c>
+      <c r="E168">
+        <v>0.2</v>
+      </c>
+      <c r="F168" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169">
+        <v>1.15</v>
+      </c>
+      <c r="C169">
+        <v>-0.25</v>
+      </c>
+      <c r="D169">
+        <v>1.15</v>
+      </c>
+      <c r="E169">
+        <v>-0</v>
+      </c>
+      <c r="F169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C170">
+        <v>0.65</v>
+      </c>
+      <c r="D170">
+        <v>0.91</v>
+      </c>
+      <c r="E170">
+        <v>0.8</v>
+      </c>
+      <c r="F170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171">
+        <v>0.65</v>
+      </c>
+      <c r="C171">
+        <v>-0.1</v>
+      </c>
+      <c r="D171">
+        <v>0.75</v>
+      </c>
+      <c r="E171">
+        <v>0.05</v>
+      </c>
+      <c r="F171" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C172">
+        <v>0.65</v>
+      </c>
+      <c r="D172">
+        <v>0.91</v>
+      </c>
+      <c r="E172">
+        <v>0.8</v>
+      </c>
+      <c r="F172" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173">
+        <v>0.91</v>
+      </c>
+      <c r="C173">
+        <v>-1.35</v>
+      </c>
+      <c r="D173">
+        <v>0.91</v>
+      </c>
+      <c r="E173">
+        <v>-1.1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174">
+        <v>1.15</v>
+      </c>
+      <c r="C174">
+        <v>-0.25</v>
+      </c>
+      <c r="D174">
+        <v>1.15</v>
+      </c>
+      <c r="E174">
+        <v>-0</v>
+      </c>
+      <c r="F174" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175">
+        <v>0.15</v>
+      </c>
+      <c r="C175">
+        <v>0.15</v>
+      </c>
+      <c r="D175">
+        <v>0.3</v>
+      </c>
+      <c r="E175">
+        <v>0.25</v>
+      </c>
+      <c r="F175" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176">
+        <v>0.8</v>
+      </c>
+      <c r="C176">
+        <v>0.75</v>
+      </c>
+      <c r="D176">
+        <v>0.9</v>
+      </c>
+      <c r="E176">
+        <v>0.9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177">
+        <v>-0.15</v>
+      </c>
+      <c r="C177">
+        <v>1.17</v>
+      </c>
+      <c r="D177">
+        <v>0.1</v>
+      </c>
+      <c r="E177">
+        <v>1.17</v>
+      </c>
+      <c r="F177" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178">
+        <v>1.17</v>
+      </c>
+      <c r="C178">
+        <v>-0.15</v>
+      </c>
+      <c r="D178">
+        <v>1.17</v>
+      </c>
+      <c r="E178">
+        <v>0.1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179">
+        <v>0.75</v>
+      </c>
+      <c r="C179">
+        <v>0.75</v>
+      </c>
+      <c r="D179">
+        <v>0.85</v>
+      </c>
+      <c r="E179">
+        <v>0.9</v>
+      </c>
+      <c r="F179" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="C180">
+        <v>0.05</v>
+      </c>
+      <c r="D180">
+        <v>0.25</v>
+      </c>
+      <c r="E180">
+        <v>0.1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181">
+        <v>0.21</v>
+      </c>
+      <c r="C181">
+        <v>-0.35</v>
+      </c>
+      <c r="D181">
+        <v>0.21</v>
+      </c>
+      <c r="E181">
+        <v>-0.1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182">
+        <v>0.85</v>
+      </c>
+      <c r="C182">
+        <v>0.85</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>0.95</v>
+      </c>
+      <c r="F182" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183">
+        <v>1.15</v>
+      </c>
+      <c r="C183">
+        <v>-0.25</v>
+      </c>
+      <c r="D183">
+        <v>1.15</v>
+      </c>
+      <c r="E183">
+        <v>-0</v>
+      </c>
+      <c r="F183" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184">
+        <v>0.55</v>
+      </c>
+      <c r="C184">
+        <v>0.65</v>
+      </c>
+      <c r="D184">
+        <v>0.65</v>
+      </c>
+      <c r="E184">
+        <v>0.8</v>
+      </c>
+      <c r="F184" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185">
+        <v>1.11</v>
+      </c>
+      <c r="C185">
+        <v>-0.4</v>
+      </c>
+      <c r="D185">
+        <v>1.11</v>
+      </c>
+      <c r="E185">
+        <v>-0.15</v>
+      </c>
+      <c r="F185" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186">
+        <v>0.9</v>
+      </c>
+      <c r="C186">
+        <v>0.65</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>0.8</v>
+      </c>
+      <c r="F186" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187">
+        <v>0.92</v>
+      </c>
+      <c r="C187">
+        <v>0.75</v>
+      </c>
+      <c r="D187">
+        <v>1.02</v>
+      </c>
+      <c r="E187">
+        <v>0.9</v>
+      </c>
+      <c r="F187" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="C188">
+        <v>0.2</v>
+      </c>
+      <c r="D188">
+        <v>0.72</v>
+      </c>
+      <c r="E188">
+        <v>0.4</v>
+      </c>
+      <c r="F188" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189">
+        <v>0.6</v>
+      </c>
+      <c r="C189">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D189">
+        <v>0.7</v>
+      </c>
+      <c r="E189">
+        <v>0.7</v>
+      </c>
+      <c r="F189" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190">
+        <v>0.85</v>
+      </c>
+      <c r="C190">
+        <v>0.85</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>0.95</v>
+      </c>
+      <c r="F190" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191">
+        <v>1.15</v>
+      </c>
+      <c r="C191">
+        <v>-0.25</v>
+      </c>
+      <c r="D191">
+        <v>1.15</v>
+      </c>
+      <c r="E191">
+        <v>-0</v>
+      </c>
+      <c r="F191" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192">
+        <v>1.13</v>
+      </c>
+      <c r="C192">
+        <v>-0.25</v>
+      </c>
+      <c r="D192">
+        <v>1.13</v>
+      </c>
+      <c r="E192">
+        <v>-0</v>
+      </c>
+      <c r="F192" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193">
+        <v>0.4</v>
+      </c>
+      <c r="C193">
+        <v>-0.25</v>
+      </c>
+      <c r="D193">
+        <v>0.4</v>
+      </c>
+      <c r="E193">
+        <v>-0</v>
+      </c>
+      <c r="F193" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194">
+        <v>-0</v>
+      </c>
+      <c r="C194">
+        <v>-0.15</v>
+      </c>
+      <c r="D194">
+        <v>-0</v>
+      </c>
+      <c r="E194">
+        <v>0.1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="C195">
+        <v>0.7</v>
+      </c>
+      <c r="D195">
+        <v>0.92</v>
+      </c>
+      <c r="E195">
+        <v>0.85</v>
+      </c>
+      <c r="F195" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>0.18</v>
+      </c>
+      <c r="C196">
+        <v>-0.2</v>
+      </c>
+      <c r="D196">
+        <v>0.18</v>
+      </c>
+      <c r="E196">
+        <v>0.05</v>
+      </c>
+      <c r="F196" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C197">
+        <v>0.75</v>
+      </c>
+      <c r="D197">
+        <v>0.93</v>
+      </c>
+      <c r="E197">
+        <v>0.9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B198">
+        <v>1.15</v>
+      </c>
+      <c r="C198">
+        <v>-0.1</v>
+      </c>
+      <c r="D198">
+        <v>1.15</v>
+      </c>
+      <c r="E198">
+        <v>0.15</v>
+      </c>
+      <c r="F198" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199">
+        <v>0.55</v>
+      </c>
+      <c r="C199">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D199">
+        <v>0.65</v>
+      </c>
+      <c r="E199">
+        <v>0.7</v>
+      </c>
+      <c r="F199" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B200">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C200">
+        <v>0.7</v>
+      </c>
+      <c r="D200">
+        <v>0.91</v>
+      </c>
+      <c r="E200">
+        <v>0.85</v>
+      </c>
+      <c r="F200" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B201">
+        <v>0.75</v>
+      </c>
+      <c r="C201">
+        <v>0.75</v>
+      </c>
+      <c r="D201">
+        <v>0.85</v>
+      </c>
+      <c r="E201">
+        <v>0.9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B202">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C202">
+        <v>0.65</v>
+      </c>
+      <c r="D202">
+        <v>0.8</v>
+      </c>
+      <c r="E202">
+        <v>0.8</v>
+      </c>
+      <c r="F202" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B203">
+        <v>0.75</v>
+      </c>
+      <c r="C203">
+        <v>0.75</v>
+      </c>
+      <c r="D203">
+        <v>0.85</v>
+      </c>
+      <c r="E203">
+        <v>0.9</v>
+      </c>
+      <c r="F203" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B204">
+        <v>0.65</v>
+      </c>
+      <c r="C204">
+        <v>0.7</v>
+      </c>
+      <c r="D204">
+        <v>0.75</v>
+      </c>
+      <c r="E204">
+        <v>0.85</v>
+      </c>
+      <c r="F204" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B205">
+        <v>0.85</v>
+      </c>
+      <c r="C205">
+        <v>0.85</v>
+      </c>
+      <c r="D205">
+        <v>0.95</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B206">
+        <v>0.4</v>
+      </c>
+      <c r="C206">
+        <v>0.35</v>
+      </c>
+      <c r="D206">
+        <v>0.5</v>
+      </c>
+      <c r="E206">
+        <v>0.5</v>
+      </c>
+      <c r="F206" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B207">
+        <v>1.11</v>
+      </c>
+      <c r="C207">
+        <v>0.75</v>
+      </c>
+      <c r="D207">
+        <v>1.21</v>
+      </c>
+      <c r="E207">
+        <v>0.9</v>
+      </c>
+      <c r="F207" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>-0.31</v>
+      </c>
+      <c r="C208">
+        <v>-1.67</v>
+      </c>
+      <c r="D208">
+        <v>-0.31</v>
+      </c>
+      <c r="E208">
+        <v>-1.42</v>
+      </c>
+      <c r="F208" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B209">
+        <v>1.14</v>
+      </c>
+      <c r="C209">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="D209">
+        <v>1.14</v>
+      </c>
+      <c r="E209">
+        <v>0.21</v>
+      </c>
+      <c r="F209" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B210">
+        <v>1.14</v>
+      </c>
+      <c r="C210">
+        <v>-0.3</v>
+      </c>
+      <c r="D210">
+        <v>1.14</v>
+      </c>
+      <c r="E210">
+        <v>-0.05</v>
+      </c>
+      <c r="F210" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211">
+        <v>1.11</v>
+      </c>
+      <c r="C211">
+        <v>0.75</v>
+      </c>
+      <c r="D211">
+        <v>1.21</v>
+      </c>
+      <c r="E211">
+        <v>0.9</v>
+      </c>
+      <c r="F211" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212">
+        <v>1.11</v>
+      </c>
+      <c r="C212">
+        <v>0.75</v>
+      </c>
+      <c r="D212">
+        <v>1.21</v>
+      </c>
+      <c r="E212">
+        <v>0.9</v>
+      </c>
+      <c r="F212" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B213">
+        <v>1.11</v>
+      </c>
+      <c r="C213">
+        <v>0.75</v>
+      </c>
+      <c r="D213">
+        <v>1.21</v>
+      </c>
+      <c r="E213">
+        <v>0.9</v>
+      </c>
+      <c r="F213" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214">
+        <v>1.11</v>
+      </c>
+      <c r="C214">
+        <v>0.75</v>
+      </c>
+      <c r="D214">
+        <v>1.21</v>
+      </c>
+      <c r="E214">
+        <v>0.9</v>
+      </c>
+      <c r="F214" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B215">
+        <v>1.03</v>
+      </c>
+      <c r="C215">
+        <v>-0.41</v>
+      </c>
+      <c r="D215">
+        <v>1.03</v>
+      </c>
+      <c r="E215">
+        <v>-0.16</v>
+      </c>
+      <c r="F215" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216">
+        <v>0.95</v>
+      </c>
+      <c r="C216">
+        <v>-1.1</v>
+      </c>
+      <c r="D216">
+        <v>0.95</v>
+      </c>
+      <c r="E216">
+        <v>-0.85</v>
+      </c>
+      <c r="F216" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217">
+        <v>0.92</v>
+      </c>
+      <c r="C217">
+        <v>-0.43</v>
+      </c>
+      <c r="D217">
+        <v>0.92</v>
+      </c>
+      <c r="E217">
+        <v>-0.18</v>
+      </c>
+      <c r="F217" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B218">
+        <v>1.12</v>
+      </c>
+      <c r="C218">
+        <v>-0.2</v>
+      </c>
+      <c r="D218">
+        <v>1.12</v>
+      </c>
+      <c r="E218">
+        <v>0.05</v>
+      </c>
+      <c r="F218" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B219">
+        <v>1.13</v>
+      </c>
+      <c r="C219">
+        <v>-0.18</v>
+      </c>
+      <c r="D219">
+        <v>1.13</v>
+      </c>
+      <c r="E219">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F219" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220">
+        <v>1.1</v>
+      </c>
+      <c r="C220">
+        <v>0.74</v>
+      </c>
+      <c r="D220">
+        <v>1.2</v>
+      </c>
+      <c r="E220">
+        <v>0.89</v>
+      </c>
+      <c r="F220" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B221">
+        <v>1.5</v>
+      </c>
+      <c r="C221">
+        <v>-0.2</v>
+      </c>
+      <c r="D221">
+        <v>1.5</v>
+      </c>
+      <c r="E221">
+        <v>0.05</v>
+      </c>
+      <c r="F221" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="C222">
+        <v>0.3</v>
+      </c>
+      <c r="D222">
+        <v>1.07</v>
+      </c>
+      <c r="E222">
+        <v>0.45</v>
+      </c>
+      <c r="F222" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B223">
+        <v>1.5</v>
+      </c>
+      <c r="C223">
+        <v>-0.1</v>
+      </c>
+      <c r="D223">
+        <v>1.5</v>
+      </c>
+      <c r="E223">
+        <v>0.15</v>
+      </c>
+      <c r="F223" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224">
+        <v>0.66</v>
+      </c>
+      <c r="C224">
+        <v>-1.05</v>
+      </c>
+      <c r="D224">
+        <v>0.66</v>
+      </c>
+      <c r="E224">
+        <v>-0.8</v>
+      </c>
+      <c r="F224" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="C225">
+        <v>-1.27</v>
+      </c>
+      <c r="D225">
+        <v>0.68</v>
+      </c>
+      <c r="E225">
+        <v>-1.12</v>
+      </c>
+      <c r="F225" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226">
+        <v>1.04</v>
+      </c>
+      <c r="C226">
+        <v>0.45</v>
+      </c>
+      <c r="D226">
+        <v>1.14</v>
+      </c>
+      <c r="E226">
+        <v>0.6</v>
+      </c>
+      <c r="F226" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B227">
+        <v>1.09</v>
+      </c>
+      <c r="C227">
+        <v>0.74</v>
+      </c>
+      <c r="D227">
+        <v>1.19</v>
+      </c>
+      <c r="E227">
+        <v>0.89</v>
+      </c>
+      <c r="F227" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>1.07</v>
+      </c>
+      <c r="C228">
+        <v>0.71</v>
+      </c>
+      <c r="D228">
+        <v>1.17</v>
+      </c>
+      <c r="E228">
+        <v>0.86</v>
+      </c>
+      <c r="F228" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B229">
+        <v>1.03</v>
+      </c>
+      <c r="C229">
+        <v>0.35</v>
+      </c>
+      <c r="D229">
+        <v>1.13</v>
+      </c>
+      <c r="E229">
+        <v>0.5</v>
+      </c>
+      <c r="F229" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230">
+        <v>1.04</v>
+      </c>
+      <c r="C230">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D230">
+        <v>1.14</v>
+      </c>
+      <c r="E230">
+        <v>0.71</v>
+      </c>
+      <c r="F230" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B231">
+        <v>1.11</v>
+      </c>
+      <c r="C231">
+        <v>0.75</v>
+      </c>
+      <c r="D231">
+        <v>1.21</v>
+      </c>
+      <c r="E231">
+        <v>0.9</v>
+      </c>
+      <c r="F231" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B232">
+        <v>1.13</v>
+      </c>
+      <c r="C232">
+        <v>-0.35</v>
+      </c>
+      <c r="D232">
+        <v>1.13</v>
+      </c>
+      <c r="E232">
+        <v>-0.1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233">
+        <v>0.99</v>
+      </c>
+      <c r="C233">
+        <v>-0.29</v>
+      </c>
+      <c r="D233">
+        <v>0.99</v>
+      </c>
+      <c r="E233">
+        <v>-0.04</v>
+      </c>
+      <c r="F233" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B234">
+        <v>0.97</v>
+      </c>
+      <c r="C234">
+        <v>-0.5</v>
+      </c>
+      <c r="D234">
+        <v>0.97</v>
+      </c>
+      <c r="E234">
+        <v>-0.25</v>
+      </c>
+      <c r="F234" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B235">
+        <v>1.14</v>
+      </c>
+      <c r="C235">
+        <v>-0.35</v>
+      </c>
+      <c r="D235">
+        <v>1.14</v>
+      </c>
+      <c r="E235">
+        <v>-0.1</v>
+      </c>
+      <c r="F235" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B236">
+        <v>1.07</v>
+      </c>
+      <c r="C236">
+        <v>-0.45</v>
+      </c>
+      <c r="D236">
+        <v>1.07</v>
+      </c>
+      <c r="E236">
+        <v>-0.2</v>
+      </c>
+      <c r="F236" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>1.11</v>
+      </c>
+      <c r="C237">
+        <v>0.75</v>
+      </c>
+      <c r="D237">
+        <v>1.21</v>
+      </c>
+      <c r="E237">
+        <v>0.9</v>
+      </c>
+      <c r="F237" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238">
+        <v>0.77</v>
+      </c>
+      <c r="C238">
+        <v>-1.11</v>
+      </c>
+      <c r="D238">
+        <v>0.77</v>
+      </c>
+      <c r="E238">
+        <v>-0.86</v>
+      </c>
+      <c r="F238" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239">
+        <v>0.9800000000000001</v>
+      </c>
+      <c r="C239">
+        <v>0.5</v>
+      </c>
+      <c r="D239">
+        <v>1.08</v>
+      </c>
+      <c r="E239">
+        <v>0.65</v>
+      </c>
+      <c r="F239" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240">
+        <v>1.06</v>
+      </c>
+      <c r="C240">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D240">
+        <v>1.16</v>
+      </c>
+      <c r="E240">
+        <v>0.7</v>
+      </c>
+      <c r="F240" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241">
+        <v>1.11</v>
+      </c>
+      <c r="C241">
+        <v>-0.45</v>
+      </c>
+      <c r="D241">
+        <v>1.11</v>
+      </c>
+      <c r="E241">
+        <v>-0.2</v>
+      </c>
+      <c r="F241" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242">
+        <v>1.08</v>
+      </c>
+      <c r="C242">
+        <v>0.6</v>
+      </c>
+      <c r="D242">
+        <v>1.18</v>
+      </c>
+      <c r="E242">
+        <v>0.75</v>
+      </c>
+      <c r="F242" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243">
+        <v>1.13</v>
+      </c>
+      <c r="C243">
+        <v>-0.3</v>
+      </c>
+      <c r="D243">
+        <v>1.13</v>
+      </c>
+      <c r="E243">
+        <v>-0.05</v>
+      </c>
+      <c r="F243" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244">
+        <v>1.1</v>
+      </c>
+      <c r="C244">
+        <v>-0.38</v>
+      </c>
+      <c r="D244">
+        <v>1.1</v>
+      </c>
+      <c r="E244">
+        <v>-0.13</v>
+      </c>
+      <c r="F244" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245">
+        <v>1.5</v>
+      </c>
+      <c r="C245">
+        <v>-0.1</v>
+      </c>
+      <c r="D245">
+        <v>1.5</v>
+      </c>
+      <c r="E245">
+        <v>0.15</v>
+      </c>
+      <c r="F245" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246">
+        <v>1.11</v>
+      </c>
+      <c r="C246">
+        <v>0.75</v>
+      </c>
+      <c r="D246">
+        <v>1.21</v>
+      </c>
+      <c r="E246">
+        <v>0.9</v>
+      </c>
+      <c r="F246" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247">
+        <v>1.5</v>
+      </c>
+      <c r="C247">
+        <v>-0.1</v>
+      </c>
+      <c r="D247">
+        <v>1.5</v>
+      </c>
+      <c r="E247">
+        <v>0.15</v>
+      </c>
+      <c r="F247" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248">
+        <v>1.12</v>
+      </c>
+      <c r="C248">
+        <v>-0.35</v>
+      </c>
+      <c r="D248">
+        <v>1.12</v>
+      </c>
+      <c r="E248">
+        <v>-0.1</v>
+      </c>
+      <c r="F248" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249">
+        <v>1.05</v>
+      </c>
+      <c r="C249">
+        <v>0.6</v>
+      </c>
+      <c r="D249">
+        <v>1.15</v>
+      </c>
+      <c r="E249">
+        <v>0.75</v>
+      </c>
+      <c r="F249" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250">
+        <v>1.18</v>
+      </c>
+      <c r="C250">
+        <v>-0.1</v>
+      </c>
+      <c r="D250">
+        <v>1.18</v>
+      </c>
+      <c r="E250">
+        <v>0.15</v>
+      </c>
+      <c r="F250" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251">
+        <v>1.13</v>
+      </c>
+      <c r="C251">
+        <v>-0.35</v>
+      </c>
+      <c r="D251">
+        <v>1.13</v>
+      </c>
+      <c r="E251">
+        <v>-0.1</v>
+      </c>
+      <c r="F251" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252">
+        <v>1.11</v>
+      </c>
+      <c r="C252">
+        <v>0.75</v>
+      </c>
+      <c r="D252">
+        <v>1.21</v>
+      </c>
+      <c r="E252">
+        <v>0.9</v>
+      </c>
+      <c r="F252" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253">
+        <v>1.11</v>
+      </c>
+      <c r="C253">
+        <v>0.75</v>
+      </c>
+      <c r="D253">
+        <v>1.21</v>
+      </c>
+      <c r="E253">
+        <v>0.9</v>
+      </c>
+      <c r="F253" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254">
+        <v>1.5</v>
+      </c>
+      <c r="C254">
+        <v>-0.11</v>
+      </c>
+      <c r="D254">
+        <v>1.5</v>
+      </c>
+      <c r="E254">
+        <v>0.14</v>
+      </c>
+      <c r="F254" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B255">
+        <v>1.17</v>
+      </c>
+      <c r="C255">
+        <v>-0.15</v>
+      </c>
+      <c r="D255">
+        <v>1.17</v>
+      </c>
+      <c r="E255">
+        <v>0.1</v>
+      </c>
+      <c r="F255" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B256">
+        <v>1.07</v>
+      </c>
+      <c r="C256">
+        <v>-0.4</v>
+      </c>
+      <c r="D256">
+        <v>1.07</v>
+      </c>
+      <c r="E256">
+        <v>-0.15</v>
+      </c>
+      <c r="F256" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B257">
+        <v>1.13</v>
+      </c>
+      <c r="C257">
+        <v>-0.25</v>
+      </c>
+      <c r="D257">
+        <v>1.13</v>
+      </c>
+      <c r="E257">
+        <v>-0</v>
+      </c>
+      <c r="F257" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B258">
+        <v>1.09</v>
+      </c>
+      <c r="C258">
+        <v>0.65</v>
+      </c>
+      <c r="D258">
+        <v>1.19</v>
+      </c>
+      <c r="E258">
+        <v>0.8</v>
+      </c>
+      <c r="F258" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B259">
+        <v>1.01</v>
+      </c>
+      <c r="C259">
+        <v>-0.6</v>
+      </c>
+      <c r="D259">
+        <v>1.01</v>
+      </c>
+      <c r="E259">
+        <v>-0.35</v>
+      </c>
+      <c r="F259" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260">
+        <v>1.01</v>
+      </c>
+      <c r="C260">
+        <v>0.61</v>
+      </c>
+      <c r="D260">
+        <v>1.11</v>
+      </c>
+      <c r="E260">
+        <v>0.76</v>
+      </c>
+      <c r="F260" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B261">
+        <v>1.1</v>
+      </c>
+      <c r="C261">
+        <v>0.7</v>
+      </c>
+      <c r="D261">
+        <v>1.2</v>
+      </c>
+      <c r="E261">
+        <v>0.85</v>
+      </c>
+      <c r="F261" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262">
+        <v>0.96</v>
+      </c>
+      <c r="C262">
+        <v>-0.8</v>
+      </c>
+      <c r="D262">
+        <v>0.96</v>
+      </c>
+      <c r="E262">
+        <v>-0.55</v>
+      </c>
+      <c r="F262" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B263">
+        <v>1.11</v>
+      </c>
+      <c r="C263">
+        <v>0.75</v>
+      </c>
+      <c r="D263">
+        <v>1.21</v>
+      </c>
+      <c r="E263">
+        <v>0.9</v>
+      </c>
+      <c r="F263" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B264">
+        <v>1.04</v>
+      </c>
+      <c r="C264">
+        <v>0.4</v>
+      </c>
+      <c r="D264">
+        <v>1.14</v>
+      </c>
+      <c r="E264">
+        <v>0.55</v>
+      </c>
+      <c r="F264" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B265">
+        <v>1.5</v>
+      </c>
+      <c r="C265">
+        <v>-0.1</v>
+      </c>
+      <c r="D265">
+        <v>1.5</v>
+      </c>
+      <c r="E265">
+        <v>0.15</v>
+      </c>
+      <c r="F265" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B266">
+        <v>1.15</v>
+      </c>
+      <c r="C266">
+        <v>-0.2</v>
+      </c>
+      <c r="D266">
+        <v>1.15</v>
+      </c>
+      <c r="E266">
+        <v>0.05</v>
+      </c>
+      <c r="F266" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B267">
+        <v>1.08</v>
+      </c>
+      <c r="C267">
+        <v>0.72</v>
+      </c>
+      <c r="D267">
+        <v>1.18</v>
+      </c>
+      <c r="E267">
+        <v>0.87</v>
+      </c>
+      <c r="F267" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B268">
+        <v>1.04</v>
+      </c>
+      <c r="C268">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="D268">
+        <v>1.14</v>
+      </c>
+      <c r="E268">
+        <v>0.83</v>
+      </c>
+      <c r="F268" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B269">
+        <v>1.04</v>
+      </c>
+      <c r="C269">
+        <v>0.5</v>
+      </c>
+      <c r="D269">
+        <v>1.14</v>
+      </c>
+      <c r="E269">
+        <v>0.65</v>
+      </c>
+      <c r="F269" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B270">
+        <v>0.93</v>
+      </c>
+      <c r="C270">
+        <v>-0.1</v>
+      </c>
+      <c r="D270">
+        <v>1.03</v>
+      </c>
+      <c r="E270">
+        <v>0.05</v>
+      </c>
+      <c r="F270" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271">
+        <v>1.04</v>
+      </c>
+      <c r="C271">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="D271">
+        <v>1.14</v>
+      </c>
+      <c r="E271">
+        <v>0.59</v>
+      </c>
+      <c r="F271" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272">
+        <v>1.13</v>
+      </c>
+      <c r="C272">
+        <v>-0.35</v>
+      </c>
+      <c r="D272">
+        <v>1.13</v>
+      </c>
+      <c r="E272">
+        <v>-0.1</v>
+      </c>
+      <c r="F272" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273">
+        <v>1.08</v>
+      </c>
+      <c r="C273">
+        <v>0.6</v>
+      </c>
+      <c r="D273">
+        <v>1.18</v>
+      </c>
+      <c r="E273">
+        <v>0.75</v>
+      </c>
+      <c r="F273" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274">
+        <v>1.11</v>
+      </c>
+      <c r="C274">
+        <v>-0.45</v>
+      </c>
+      <c r="D274">
+        <v>1.11</v>
+      </c>
+      <c r="E274">
+        <v>-0.2</v>
+      </c>
+      <c r="F274" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275">
+        <v>1.09</v>
+      </c>
+      <c r="C275">
+        <v>0.65</v>
+      </c>
+      <c r="D275">
+        <v>1.19</v>
+      </c>
+      <c r="E275">
+        <v>0.8</v>
+      </c>
+      <c r="F275" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276">
+        <v>1.08</v>
+      </c>
+      <c r="C276">
+        <v>0.6</v>
+      </c>
+      <c r="D276">
+        <v>1.18</v>
+      </c>
+      <c r="E276">
+        <v>0.75</v>
+      </c>
+      <c r="F276" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>-0.4</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>-0.15</v>
+      </c>
+      <c r="F277" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B278">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="C278">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="D278">
+        <v>1.07</v>
+      </c>
+      <c r="E278">
+        <v>0.2</v>
+      </c>
+      <c r="F278" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B279">
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="C279">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="D279">
+        <v>1.06</v>
+      </c>
+      <c r="E279">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F279" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B280">
+        <v>1.5</v>
+      </c>
+      <c r="C280">
+        <v>-0.25</v>
+      </c>
+      <c r="D280">
+        <v>1.5</v>
+      </c>
+      <c r="E280">
+        <v>-0</v>
+      </c>
+      <c r="F280" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B281">
+        <v>1.12</v>
+      </c>
+      <c r="C281">
+        <v>-0.16</v>
+      </c>
+      <c r="D281">
+        <v>1.12</v>
+      </c>
+      <c r="E281">
+        <v>0.09</v>
+      </c>
+      <c r="F281" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B282">
+        <v>1.13</v>
+      </c>
+      <c r="C282">
+        <v>-0.35</v>
+      </c>
+      <c r="D282">
+        <v>1.13</v>
+      </c>
+      <c r="E282">
+        <v>-0.1</v>
+      </c>
+      <c r="F282" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B283">
+        <v>1.15</v>
+      </c>
+      <c r="C283">
+        <v>-0.2</v>
+      </c>
+      <c r="D283">
+        <v>1.15</v>
+      </c>
+      <c r="E283">
+        <v>0.05</v>
+      </c>
+      <c r="F283" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B284">
+        <v>1.08</v>
+      </c>
+      <c r="C284">
+        <v>0.7</v>
+      </c>
+      <c r="D284">
+        <v>1.18</v>
+      </c>
+      <c r="E284">
+        <v>0.85</v>
+      </c>
+      <c r="F284" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285">
+        <v>1.18</v>
+      </c>
+      <c r="C285">
+        <v>-0.1</v>
+      </c>
+      <c r="D285">
+        <v>1.18</v>
+      </c>
+      <c r="E285">
+        <v>0.15</v>
+      </c>
+      <c r="F285" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B286">
+        <v>1.14</v>
+      </c>
+      <c r="C286">
+        <v>-0.25</v>
+      </c>
+      <c r="D286">
+        <v>1.14</v>
+      </c>
+      <c r="E286">
+        <v>-0</v>
+      </c>
+      <c r="F286" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B287">
+        <v>0.91</v>
+      </c>
+      <c r="C287">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="D287">
+        <v>1.01</v>
+      </c>
+      <c r="E287">
+        <v>0.3</v>
+      </c>
+      <c r="F287" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B288">
+        <v>0.75</v>
+      </c>
+      <c r="C288">
+        <v>0.83</v>
+      </c>
+      <c r="D288">
+        <v>0.85</v>
+      </c>
+      <c r="E288">
+        <v>0.98</v>
+      </c>
+      <c r="F288" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B289">
+        <v>0.009999999999999995</v>
+      </c>
+      <c r="C289">
+        <v>-0.19</v>
+      </c>
+      <c r="D289">
+        <v>0.06</v>
+      </c>
+      <c r="E289">
+        <v>0.01</v>
+      </c>
+      <c r="F289" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B290">
+        <v>0.75</v>
+      </c>
+      <c r="C290">
+        <v>0.75</v>
+      </c>
+      <c r="D290">
+        <v>0.85</v>
+      </c>
+      <c r="E290">
+        <v>0.9</v>
+      </c>
+      <c r="F290" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B291">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="C291">
+        <v>-0.4</v>
+      </c>
+      <c r="D291">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E291">
+        <v>-0.15</v>
+      </c>
+      <c r="F291" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B292">
+        <v>0.87</v>
+      </c>
+      <c r="C292">
+        <v>0.75</v>
+      </c>
+      <c r="D292">
+        <v>0.97</v>
+      </c>
+      <c r="E292">
+        <v>0.9</v>
+      </c>
+      <c r="F292" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293">
+        <v>0.7</v>
+      </c>
+      <c r="C293">
+        <v>0.74</v>
+      </c>
+      <c r="D293">
+        <v>0.85</v>
+      </c>
+      <c r="E293">
+        <v>0.84</v>
+      </c>
+      <c r="F293" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294">
+        <v>0.49</v>
+      </c>
+      <c r="C294">
+        <v>0.49</v>
+      </c>
+      <c r="D294">
+        <v>0.64</v>
+      </c>
+      <c r="E294">
+        <v>0.59</v>
+      </c>
+      <c r="F294" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B295">
+        <v>0.01999999999999999</v>
+      </c>
+      <c r="C295">
+        <v>-0.45</v>
+      </c>
+      <c r="D295">
+        <v>0.12</v>
+      </c>
+      <c r="E295">
+        <v>-0.25</v>
+      </c>
+      <c r="F295" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B296">
+        <v>0.15</v>
+      </c>
+      <c r="C296">
+        <v>0.15</v>
+      </c>
+      <c r="D296">
+        <v>0.25</v>
+      </c>
+      <c r="E296">
+        <v>0.3</v>
+      </c>
+      <c r="F296" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297">
+        <v>0.51</v>
+      </c>
+      <c r="C297">
+        <v>-0.1</v>
+      </c>
+      <c r="D297">
+        <v>0.51</v>
+      </c>
+      <c r="E297">
+        <v>0.15</v>
+      </c>
+      <c r="F297" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B298">
+        <v>0.87</v>
+      </c>
+      <c r="C298">
+        <v>0.75</v>
+      </c>
+      <c r="D298">
+        <v>0.97</v>
+      </c>
+      <c r="E298">
+        <v>0.9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>0.2</v>
+      </c>
+      <c r="E299">
+        <v>0.1</v>
+      </c>
+      <c r="F299" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B300">
+        <v>0.5</v>
+      </c>
+      <c r="C300">
+        <v>0.49</v>
+      </c>
+      <c r="D300">
+        <v>0.6</v>
+      </c>
+      <c r="E300">
+        <v>0.64</v>
+      </c>
+      <c r="F300" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B301">
+        <v>0.75</v>
+      </c>
+      <c r="C301">
+        <v>0.79</v>
+      </c>
+      <c r="D301">
+        <v>0.85</v>
+      </c>
+      <c r="E301">
+        <v>0.99</v>
+      </c>
+      <c r="F301" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B302">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="C302">
+        <v>0.5</v>
+      </c>
+      <c r="D302">
+        <v>0.7</v>
+      </c>
+      <c r="E302">
+        <v>0.6</v>
+      </c>
+      <c r="F302" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B303">
+        <v>0.87</v>
+      </c>
+      <c r="C303">
+        <v>0.75</v>
+      </c>
+      <c r="D303">
+        <v>0.97</v>
+      </c>
+      <c r="E303">
+        <v>0.9</v>
+      </c>
+      <c r="F303" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B304">
+        <v>0.52</v>
+      </c>
+      <c r="C304">
+        <v>-0.35</v>
+      </c>
+      <c r="D304">
+        <v>0.67</v>
+      </c>
+      <c r="E304">
+        <v>-0.2</v>
+      </c>
+      <c r="F304" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305">
+        <v>-0.53</v>
+      </c>
+      <c r="C305">
+        <v>-1.1</v>
+      </c>
+      <c r="D305">
+        <v>-0.53</v>
+      </c>
+      <c r="E305">
+        <v>-0.85</v>
+      </c>
+      <c r="F305" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B306">
+        <v>0.15</v>
+      </c>
+      <c r="C306">
+        <v>0.15</v>
+      </c>
+      <c r="D306">
+        <v>0.25</v>
+      </c>
+      <c r="E306">
+        <v>0.3</v>
+      </c>
+      <c r="F306" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B307">
+        <v>0.75</v>
+      </c>
+      <c r="C307">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D307">
+        <v>0.85</v>
+      </c>
+      <c r="E307">
+        <v>0.7</v>
+      </c>
+      <c r="F307" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B308">
+        <v>0.16</v>
+      </c>
+      <c r="C308">
+        <v>-0.35</v>
+      </c>
+      <c r="D308">
+        <v>0.16</v>
+      </c>
+      <c r="E308">
+        <v>-0.1</v>
+      </c>
+      <c r="F308" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B309">
+        <v>0.53</v>
+      </c>
+      <c r="C309">
+        <v>0.3</v>
+      </c>
+      <c r="D309">
+        <v>0.53</v>
+      </c>
+      <c r="E309">
+        <v>0.55</v>
+      </c>
+      <c r="F309" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B310">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="C310">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="D310">
+        <v>0.2</v>
+      </c>
+      <c r="E310">
+        <v>0.15</v>
+      </c>
+      <c r="F310" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>-0.4</v>
+      </c>
+      <c r="D311">
+        <v>0.1</v>
+      </c>
+      <c r="E311">
+        <v>-0.2</v>
+      </c>
+      <c r="F311" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B312">
+        <v>0.09</v>
+      </c>
+      <c r="C312">
+        <v>-0.35</v>
+      </c>
+      <c r="D312">
+        <v>0.09</v>
+      </c>
+      <c r="E312">
+        <v>-0.1</v>
+      </c>
+      <c r="F312" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B313">
+        <v>0.45</v>
+      </c>
+      <c r="C313">
+        <v>0.49</v>
+      </c>
+      <c r="D313">
+        <v>0.6</v>
+      </c>
+      <c r="E313">
+        <v>0.59</v>
+      </c>
+      <c r="F313" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B314">
+        <v>0.6</v>
+      </c>
+      <c r="C314">
+        <v>-0.15</v>
+      </c>
+      <c r="D314">
+        <v>0.75</v>
+      </c>
+      <c r="E314">
+        <v>-0.05</v>
+      </c>
+      <c r="F314" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B315">
+        <v>0.92</v>
+      </c>
+      <c r="C315">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D315">
+        <v>1.02</v>
+      </c>
+      <c r="E315">
+        <v>0.7</v>
+      </c>
+      <c r="F315" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B316">
+        <v>0.31</v>
+      </c>
+      <c r="C316">
+        <v>-0.1</v>
+      </c>
+      <c r="D316">
+        <v>0.31</v>
+      </c>
+      <c r="E316">
+        <v>0.15</v>
+      </c>
+      <c r="F316" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B317">
+        <v>0.21</v>
+      </c>
+      <c r="C317">
+        <v>-0.35</v>
+      </c>
+      <c r="D317">
+        <v>0.21</v>
+      </c>
+      <c r="E317">
+        <v>-0.1</v>
+      </c>
+      <c r="F317" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B318">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C318">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D318">
+        <v>0.93</v>
+      </c>
+      <c r="E318">
+        <v>0.7</v>
+      </c>
+      <c r="F318" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B319">
+        <v>0.5</v>
+      </c>
+      <c r="C319">
+        <v>0.5</v>
+      </c>
+      <c r="D319">
+        <v>0.65</v>
+      </c>
+      <c r="E319">
+        <v>0.6</v>
+      </c>
+      <c r="F319" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B320">
+        <v>-1.57</v>
+      </c>
+      <c r="C320">
+        <v>-2.29</v>
+      </c>
+      <c r="D320">
+        <v>-1.57</v>
+      </c>
+      <c r="E320">
+        <v>-2.04</v>
+      </c>
+      <c r="F320" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B321">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="C321">
+        <v>0.62</v>
+      </c>
+      <c r="D321">
+        <v>0.25</v>
+      </c>
+      <c r="E321">
+        <v>0.72</v>
+      </c>
+      <c r="F321" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B322">
+        <v>0.77</v>
+      </c>
+      <c r="C322">
+        <v>0.65</v>
+      </c>
+      <c r="D322">
+        <v>0.92</v>
+      </c>
+      <c r="E322">
+        <v>0.75</v>
+      </c>
+      <c r="F322" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B323">
+        <v>-0.46</v>
+      </c>
+      <c r="C323">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="D323">
+        <v>-0.41</v>
+      </c>
+      <c r="E323">
+        <v>-0.4</v>
+      </c>
+      <c r="F323" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B324">
+        <v>-0.18</v>
+      </c>
+      <c r="C324">
+        <v>-0.35</v>
+      </c>
+      <c r="D324">
+        <v>-0.18</v>
+      </c>
+      <c r="E324">
+        <v>-0.1</v>
+      </c>
+      <c r="F324" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="D325">
+        <v>0.1</v>
+      </c>
+      <c r="E325">
+        <v>0.2</v>
+      </c>
+      <c r="F325" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B326">
+        <v>-0.85</v>
+      </c>
+      <c r="C326">
+        <v>-0.77</v>
+      </c>
+      <c r="D326">
+        <v>-0.75</v>
+      </c>
+      <c r="E326">
+        <v>-0.62</v>
+      </c>
+      <c r="F326" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B327">
+        <v>0.5</v>
+      </c>
+      <c r="C327">
+        <v>0.5</v>
+      </c>
+      <c r="D327">
+        <v>0.65</v>
+      </c>
+      <c r="E327">
+        <v>0.6</v>
+      </c>
+      <c r="F327" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B328">
+        <v>0.77</v>
+      </c>
+      <c r="C328">
+        <v>0.73</v>
+      </c>
+      <c r="D328">
+        <v>0.92</v>
+      </c>
+      <c r="E328">
+        <v>0.83</v>
+      </c>
+      <c r="F328" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B329">
+        <v>0.16</v>
+      </c>
+      <c r="C329">
+        <v>-0.32</v>
+      </c>
+      <c r="D329">
+        <v>0.26</v>
+      </c>
+      <c r="E329">
+        <v>-0.12</v>
+      </c>
+      <c r="F329" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B330">
+        <v>0.05</v>
+      </c>
+      <c r="C330">
+        <v>-0.45</v>
+      </c>
+      <c r="D330">
+        <v>0.05</v>
+      </c>
+      <c r="E330">
+        <v>-0.2</v>
+      </c>
+      <c r="F330" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B331">
+        <v>0.9</v>
+      </c>
+      <c r="C331">
+        <v>0.85</v>
+      </c>
+      <c r="D331">
+        <v>1.05</v>
+      </c>
+      <c r="E331">
+        <v>0.95</v>
+      </c>
+      <c r="F331" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B332">
+        <v>0.7</v>
+      </c>
+      <c r="C332">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D332">
+        <v>0.85</v>
+      </c>
+      <c r="E332">
+        <v>0.8</v>
+      </c>
+      <c r="F332" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/python_code/data/map 5/all_agents_score.xlsx
+++ b/python_code/data/map 5/all_agents_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:F421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5380,6 +5380,5166 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>-MsauRljHAjxxD9HBaGp</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>-MsauSB5JVOX4oxUR5j_</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E208" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>-MsauSVrS-lOK0f3lQHR</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>-MsauXxcJ_MSgqpl76-X</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E210" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>-MsauYlnUk5jaoJFNWxb</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>-Msauj4egD4t92hYw7SQ</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>-MsaumSVz74bKgQ2nLDX</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>-MsautExMivVysgpdeV6</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>-Msav5Gu7uoYG8qRYvrm</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E215" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>-Msav7YY2AsVBkhu2K9K</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>-Msav92eeRih_1c_MsCU</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>-MsavWinjz9fbbAe6u7h</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>-MsavXNep-xekmfzy2rY</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>-Msavm6ystgM46SfQHKZ</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>-MsavnJS1FX1Mwj-wTGY</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>-Msaw4PMT4vB5qvedf2u</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>-Msawzy8q27DKBaAy5Vl</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>-Msax5DgM74-HdTd_EBD</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>-MsaxGuiWAvXMjM96GKs</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>-MsaxMbZvjDJYezucubT</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>-MsaxZdUmdK1fBdv86cx</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>-MsaxqLu287O3dtnbM7Q</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>-Msay-pTxeEaDx221XW-</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>-Msay0NZ0vlI6xVcl9DT</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>-MsayNxS_IoTWfupbHOq</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>-MsayTDCHoqHpzP5tcEo</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E232" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>-MsayiPdrBZistZyZbJy</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>-MsazFgHPnh_cNyRY10M</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E234" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>-MsazlrltvCTyCk0K32H</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E235" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>-MsaznEcb1Lh3Ct_DsRP</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>-MsazqnPNIMKg8FfEDtv</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>-Msb-2fsb6jwSQjhTpy3</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>-Msb-4xbLTddwYTIgISo</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.9800000000000001</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>-Msb-L92R13oYas--wKR</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>-Msb-aPvCkGdFr1E1OPO</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E241" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>-Msb-o90jaBoGZ6XVW3n</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>-Msb-xToUBoT5GD6g-ft</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E243" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>-Msb0BLu4Z1_x9U9gTxp</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>-Msb0DgDkH9M9eppyXrJ</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>-Msb0iDHcGBNmHVrAzjy</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>-Msb0ja25jE1cXZcl6Ju</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>-Msb1PB7r0x9s-kTPb11</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E248" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>-Msb2j-y3axUl3Ds1ISq</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>-Msb2wTKCIJ1NYc9ixER</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>-Msb31WJWOACZ4ZnLaS1</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C251" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E251" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>-Msb32xz0VtKKGojjkjC</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>-Msb3DKcSLU4CJi4z0-m</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>-Msb3DXFk8lH-PwqNMws</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>-Msb3VKx0RqHRHtCaVD3</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>-Msb3sBq5RePVF3y0hX1</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E256" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>-Msb42kwp1loMerL0QGU</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C257" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E257" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>-Msb4Sb2n3KjqcGZdsk3</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>-Msb4oshaphoRkhPvqLx</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E259" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>-Msb58dQwhQRILmymsEU</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>-Msb5BVIackjn9jAb0dT</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>-Msb5GqKZ21QQyM4WUtS</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E262" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>-Msb5SRNHQ1UZ2-y7OnD</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>-Msb6cq4eGzwgJ23nf2O</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>-Msb7WzJ887rzoT7_7e7</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>-Msb7l3QZM5I8lVi1x3R</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>-Msb7wxtqQ-yWj234n0u</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>-Msb8LlcBKCtoN3oK8Q5</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>-MsbA1Bu0AZJ9XVXFR8t</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>-MsbA8e8C-IXHk5egz98</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>-MsbAHOOcg4X5elN182l</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>-MsbAZnNrZtcA4UoSiVy</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C272" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E272" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>-MsbBLHvi-k25IRccrEP</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>-MsbCUI3PzOKfwQ3iHvh</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C274" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E274" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>-MsbDBeL6lFe4MTPvWeP</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>-MsbDSEgAAfpo1uX2y_6</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>-MsbDl7aVZm1WDu3RIPQ</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>-MsbEaNZSdW1ET0FpDE_</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>-MsbEyzakmLPk01HhGa_</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>-MsbFuXMzh3nXOFwEzLa</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E280" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>-MsbHabZdFgXL8M8umJN</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="C281" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>-MsbLMgqs0rygJQtF1LO</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E282" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>-MsbM21CSblxiZUpLCQy</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="C283" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>-MsbPUEJ98yqGN_ECLR0</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>-MsbQNOnsHu4ElHfOcvK</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>-Msbfz_Q3OpvgTN3aTi6</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="C286" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>-MsbznijEfAfFmgEmkal</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>sarl ddqn distribution</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAEXLOtXEqqfH0KlM</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAEwyjEh-yzk912c2</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.009999999999999995</v>
+      </c>
+      <c r="C289" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAH0pCTKe8xGd0x_B</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAKvzI2Wv-QH2Hq-A</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="C291" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D291" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E291" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAMUwYTMpZpjoNQZR</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAMsSDTPlFVPxbs5i</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAN8ESX7sswo3BiV6</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAR-B-cfas1jvtwt1</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0.01999999999999999</v>
+      </c>
+      <c r="C295" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E295" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>-MsgARTOtxuKWMV5UCkN</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAa4BL3iCU2p9MDTd</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C297" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAc30GCmnZmodKdaB</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAonf24h9XmmIx3X-</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>-MsgAopGufwjZuksS2gR</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>-MsgB15MKwup98930kn0</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>-MsgBZUf81IybTrLIU8v</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>-MsgBxLiKur3rdNKHkRw</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>-MsgC3PuKJ0cgfG0tMYL</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C304" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E304" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>-MsgCvFl3k8vmQrzZQ78</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="D305" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="E305" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>-MsgDkUiq826xuh_NjhG</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>-MsgERxea3QFryTagjrK</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>-MsgFah89r9WcpFvu3li</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C308" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E308" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>-MsgGcYafVurq46yccG7</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>-MsgGfgX3yHhGKusrl7u</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>-MsgI6iToDalQih0fhpY</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E311" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>-MsgIi2-CV-aGAgSzFDQ</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C312" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E312" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>-MsgIqPSYuSoci00Ga1z</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>-MsgJMVclgNRJGTxJDiC</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C314" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E314" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>-MsgJhers6htnOgB79hc</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>-MsgKMiTTLIetkOYWAoP</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C316" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>-MsgKZvyxow995Iu-PDF</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C317" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E317" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>-MsgOZlcTOXpIdPf64x9</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>-MsgPGDdb3H4UITMdJ54</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>-MsgROJh-nERvQ7b1p8n</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="C320" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="D320" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="E320" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>-MsgRr7TK7GcFg7htlpg</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>-MsgRyn2tztlDQxPnY8l</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>-MsgSAoBZFjUQTC7u015</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="C323" t="n">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="D323" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="E323" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>-MsgSZycR7KyAZ4DYZN1</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="C324" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="D324" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="E324" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>-MsgSsb35GZVUR3MuU2F</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>-MsgVH_r6lQ_nc5tIsCJ</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="C326" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="D326" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="E326" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>-Msg_BkQkEt-eUzXVfSt</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>closest</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>-MsgaG9NB59MSFmWLkKV</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>-MsgbAJzGfW2r79QD_TQ</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C329" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E329" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>-MsgiNYkpq3-jiVXAeCi</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C330" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E330" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>random</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>-MsgjIKhnxLbvtFgY4PR</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>-Msgkodugfx49ojmJEaA</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>farthest</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>-N5aKwJwnZYsKJ6bxv1n</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>-N5aM5UTcdGH0PM5UbC9</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>-N5aMVxO9bjAnBWeSOys</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>-N5aMev89rNE8Z8mXxCO</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>-N5aMqnApN9_Sx0UPh-L</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C337" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E337" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>-N5aN6MnlaUF-ILzWMgk</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>-N5aNWaA_UfTE-J4rT3K</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>-N5aNa8SVzA6Ygq1Z32K</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>-N5aO17kP1CzhHINebvm</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>-N5aOIH20xVYQy5yTrTs</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>-N5aP9U_iVvwLbo600vY</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>-N5aQJ49_Vk4PCOzC3GY</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>-N5aQzIkA7Jx7fOrJp9V</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>-N5aR_HRgBKB0ARznvFN</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>-N5aSgeKRlukReB9Qye6</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="D347" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E347" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>-N5aTS20dJEVga8I_ZFo</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>-N5aU9jSwZdQptioNyHx</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>-N5aUg4K2yVrh9xgH55T</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>-N5aV_Mly7UPhA9XZt0K</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5399999999999999</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>-N5aW3cdLki6kuKcHbIX</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>-N5aWmTAmjx9AHkG4KjL</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C353" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E353" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>-N5aYCuf0PSxCjq3U-i5</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>-N5aYZwEh5P2ipPopKcf</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C355" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E355" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>-N5aZHOWgHvr5wPT2geN</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>-N5aZYSLsD_B6ON1Y7d0</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C357" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E357" t="n">
+        <v>-3.93</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>-N5a_Qf3GOIo_JU1Tbi2</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>-N5a_cjY07nbpw1WByJr</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>-N5a_eLgnnj3YTsNmZAw</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>-N5a_ul8koFXYK8_uIAZ</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E361" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>-N5aa9mQsC0MW8LCNI9-</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>-N5aaBfhxqWsnolCrwYY</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>-N5abHjDasbw7gL68mpm</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>-N5ac7haHD7hdTfKCVcX</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>-N5acAgCH10OxqMywPHj</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C366" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E366" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>-N5acmEPjXUlN00a-weO</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>-N5aeOWFWjz04wHNhP6Q</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>-N5afcOrR-0_NCSPIuUx</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>-N5ahsZehwS32yYzsbaH</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>-N5al1msTwnGEr-NQykV</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C371" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>-N5al4ePP1MZPQ3_zb1z</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C372" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E372" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>-N5alj69wf1eOWxonkYh</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>-N5anVK0PfVJHOtbanP0</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.9600000000000001</v>
+      </c>
+      <c r="C374" t="n">
+        <v>-2.775557561562891e-17</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>-N5aqGpR96I8oHsYUGiC</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.9700000000000001</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>-N5axMxPpbNFTbwt1Lyi</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>-N5bUQJ53twu4zVmRf0I</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>ddqn distribution v1</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>-N5kG5PbGAUUEXwBG-68</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>-N5kG9n-S-gKjfY7Q9LW</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C379" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E379" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>-N5kGPz0tURVhOqOU0w5</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>-N5kGz0KK5ocxPJtZeEO</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>-N5kH1Rvfm6gWI5NDLJp</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>-N5kH1ZcvuMOetJUfcne</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>-N5kH4r_i293qyWwdhMz</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>-N5kHSoe-rVXyLkI6PVo</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>-N5kHTLcbRUHaBaQeNP1</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>-N5kHlCjQNLi3DCWTf98</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>-N5kI-h2WwzoBXeJOMkz</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>-N5kIC4USuvGjLmjltSy</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C389" t="n">
+        <v>-0.05000000000000002</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>-N5kITL5kXK-RBK_hrpq</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>-N5kIm4ACOd4VsGv_uXN</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>-N5kItkpa39MLCOqW6Sv</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>-N5kIyQI84PiRfiH_Xlj</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>-N5kJ1AGb4qgBXyCbzwC</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>-N5kJ9KzfTL0d6gJtD7q</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>-N5kJRtx_sjg3BziAm7H</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>-N5kJlG8cwhpkjAiO7vp</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>-N5kKduWnbsBH7KNOG5A</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>-N5kLjq1m1ZZyxLEw7Ib</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>-N5kMjtv24tSdkdxJOnU</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>-N5kMnmstkiAFcG8p5ti</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>-N5kNSDe5Ser_63m1nd4</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>-N5kNfPkQ9di_ax-3fg_</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>-N5kOkFOgi7eg_U0sxLC</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>-N5kOkhH6NaXhsmBUDJV</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>-N5kPQUKATsqXRksuunD</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>-N5kPWhRGAOopa3KTpp-</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>-N5kPyuKO6jo1I6Bp9XW</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>-N5kRtKFvEc_HAC5Ku2D</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>-N5kSlcSo7UU_i0VhPkL</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>-N5kTE07MbKqOVlDmmJr</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="C411" t="n">
+        <v>-0.05000000000000002</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>-N5kU3I0EZBIVNioTLOt</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>-N5kU6x-Zv_W3jVI-e5K</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C413" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E413" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>-N5kU77BHD8f1S_KvNeU</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>-N5kUJLNky4rFBLn1zke</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>-N5kUa2m--3dRb8JU2Sv</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>-N5kUj1tRAt700O3Edv6</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D417" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>-N5kVCx077wckwBX5CyO</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>-N5kVsEgo4-zGvX7X1rt</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>-N5kYFi_G24U0A3aEtSo</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>-N5k_rGhErQdyiXe9VU8</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D421" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>ddqn distribution v4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
